--- a/14a_G2C bulan februari 2018.xlsx
+++ b/14a_G2C bulan februari 2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="285" windowWidth="19440" windowHeight="4980" tabRatio="735" activeTab="1"/>
+    <workbookView xWindow="15" yWindow="285" windowWidth="19440" windowHeight="4980" tabRatio="735" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="A.Prangko" sheetId="1" r:id="rId1"/>
@@ -15467,15 +15467,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -15520,6 +15511,15 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="3" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -16421,7 +16421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T353"/>
   <sheetViews>
-    <sheetView topLeftCell="A309" workbookViewId="0">
+    <sheetView topLeftCell="A321" workbookViewId="0">
       <selection activeCell="E315" sqref="E315"/>
     </sheetView>
   </sheetViews>
@@ -16453,38 +16453,38 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="416" t="s">
+      <c r="A3" s="431" t="s">
         <v>653</v>
       </c>
-      <c r="B3" s="431" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="431" t="s">
+      <c r="B3" s="428" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="428" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="432" t="s">
+      <c r="D3" s="429" t="s">
         <v>645</v>
       </c>
-      <c r="E3" s="433" t="s">
+      <c r="E3" s="430" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="433"/>
-      <c r="G3" s="433"/>
-      <c r="H3" s="433"/>
-      <c r="I3" s="433"/>
-      <c r="J3" s="427" t="s">
+      <c r="F3" s="430"/>
+      <c r="G3" s="430"/>
+      <c r="H3" s="430"/>
+      <c r="I3" s="430"/>
+      <c r="J3" s="424" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="429" t="s">
+      <c r="K3" s="426" t="s">
         <v>598</v>
       </c>
       <c r="L3" s="213"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="417"/>
-      <c r="B4" s="431"/>
-      <c r="C4" s="431"/>
-      <c r="D4" s="432"/>
+      <c r="A4" s="432"/>
+      <c r="B4" s="428"/>
+      <c r="C4" s="428"/>
+      <c r="D4" s="429"/>
       <c r="E4" s="54" t="s">
         <v>21</v>
       </c>
@@ -16500,12 +16500,12 @@
       <c r="I4" s="54" t="s">
         <v>597</v>
       </c>
-      <c r="J4" s="428"/>
-      <c r="K4" s="430"/>
+      <c r="J4" s="425"/>
+      <c r="K4" s="427"/>
       <c r="L4" s="213"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="418"/>
+      <c r="A5" s="433"/>
       <c r="B5" s="55">
         <v>1</v>
       </c>
@@ -17948,38 +17948,38 @@
       <c r="L45" s="141"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="416" t="s">
+      <c r="A46" s="431" t="s">
         <v>653</v>
       </c>
-      <c r="B46" s="431" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="431" t="s">
+      <c r="B46" s="428" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="428" t="s">
         <v>1</v>
       </c>
-      <c r="D46" s="432" t="s">
+      <c r="D46" s="429" t="s">
         <v>645</v>
       </c>
-      <c r="E46" s="433" t="s">
+      <c r="E46" s="430" t="s">
         <v>19</v>
       </c>
-      <c r="F46" s="433"/>
-      <c r="G46" s="433"/>
-      <c r="H46" s="433"/>
-      <c r="I46" s="433"/>
-      <c r="J46" s="427" t="s">
+      <c r="F46" s="430"/>
+      <c r="G46" s="430"/>
+      <c r="H46" s="430"/>
+      <c r="I46" s="430"/>
+      <c r="J46" s="424" t="s">
         <v>20</v>
       </c>
-      <c r="K46" s="429" t="s">
+      <c r="K46" s="426" t="s">
         <v>598</v>
       </c>
       <c r="L46" s="213"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="417"/>
-      <c r="B47" s="431"/>
-      <c r="C47" s="431"/>
-      <c r="D47" s="432"/>
+      <c r="A47" s="432"/>
+      <c r="B47" s="428"/>
+      <c r="C47" s="428"/>
+      <c r="D47" s="429"/>
       <c r="E47" s="54" t="s">
         <v>21</v>
       </c>
@@ -17995,12 +17995,12 @@
       <c r="I47" s="54" t="s">
         <v>597</v>
       </c>
-      <c r="J47" s="428"/>
-      <c r="K47" s="430"/>
+      <c r="J47" s="425"/>
+      <c r="K47" s="427"/>
       <c r="L47" s="213"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="418"/>
+      <c r="A48" s="433"/>
       <c r="B48" s="55">
         <v>1</v>
       </c>
@@ -18545,38 +18545,38 @@
       <c r="L63" s="141"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="416" t="s">
+      <c r="A64" s="431" t="s">
         <v>653</v>
       </c>
-      <c r="B64" s="431" t="s">
-        <v>0</v>
-      </c>
-      <c r="C64" s="431" t="s">
+      <c r="B64" s="428" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="428" t="s">
         <v>1</v>
       </c>
-      <c r="D64" s="432" t="s">
+      <c r="D64" s="429" t="s">
         <v>645</v>
       </c>
-      <c r="E64" s="433" t="s">
+      <c r="E64" s="430" t="s">
         <v>19</v>
       </c>
-      <c r="F64" s="433"/>
-      <c r="G64" s="433"/>
-      <c r="H64" s="433"/>
-      <c r="I64" s="433"/>
-      <c r="J64" s="427" t="s">
+      <c r="F64" s="430"/>
+      <c r="G64" s="430"/>
+      <c r="H64" s="430"/>
+      <c r="I64" s="430"/>
+      <c r="J64" s="424" t="s">
         <v>20</v>
       </c>
-      <c r="K64" s="429" t="s">
+      <c r="K64" s="426" t="s">
         <v>598</v>
       </c>
       <c r="L64" s="213"/>
     </row>
     <row r="65" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="417"/>
-      <c r="B65" s="431"/>
-      <c r="C65" s="431"/>
-      <c r="D65" s="432"/>
+      <c r="A65" s="432"/>
+      <c r="B65" s="428"/>
+      <c r="C65" s="428"/>
+      <c r="D65" s="429"/>
       <c r="E65" s="54" t="s">
         <v>21</v>
       </c>
@@ -18592,12 +18592,12 @@
       <c r="I65" s="54" t="s">
         <v>597</v>
       </c>
-      <c r="J65" s="428"/>
-      <c r="K65" s="430"/>
+      <c r="J65" s="425"/>
+      <c r="K65" s="427"/>
       <c r="L65" s="213"/>
     </row>
     <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="418"/>
+      <c r="A66" s="433"/>
       <c r="B66" s="55">
         <v>1</v>
       </c>
@@ -19177,38 +19177,38 @@
       <c r="L82" s="141"/>
     </row>
     <row r="83" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="416" t="s">
+      <c r="A83" s="431" t="s">
         <v>653</v>
       </c>
-      <c r="B83" s="431" t="s">
-        <v>0</v>
-      </c>
-      <c r="C83" s="431" t="s">
+      <c r="B83" s="428" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" s="428" t="s">
         <v>1</v>
       </c>
-      <c r="D83" s="432" t="s">
+      <c r="D83" s="429" t="s">
         <v>645</v>
       </c>
-      <c r="E83" s="433" t="s">
+      <c r="E83" s="430" t="s">
         <v>19</v>
       </c>
-      <c r="F83" s="433"/>
-      <c r="G83" s="433"/>
-      <c r="H83" s="433"/>
-      <c r="I83" s="433"/>
-      <c r="J83" s="427" t="s">
+      <c r="F83" s="430"/>
+      <c r="G83" s="430"/>
+      <c r="H83" s="430"/>
+      <c r="I83" s="430"/>
+      <c r="J83" s="424" t="s">
         <v>20</v>
       </c>
-      <c r="K83" s="429" t="s">
+      <c r="K83" s="426" t="s">
         <v>598</v>
       </c>
       <c r="L83" s="213"/>
     </row>
     <row r="84" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="417"/>
-      <c r="B84" s="431"/>
-      <c r="C84" s="431"/>
-      <c r="D84" s="432"/>
+      <c r="A84" s="432"/>
+      <c r="B84" s="428"/>
+      <c r="C84" s="428"/>
+      <c r="D84" s="429"/>
       <c r="E84" s="54" t="s">
         <v>21</v>
       </c>
@@ -19224,12 +19224,12 @@
       <c r="I84" s="54" t="s">
         <v>597</v>
       </c>
-      <c r="J84" s="428"/>
-      <c r="K84" s="430"/>
+      <c r="J84" s="425"/>
+      <c r="K84" s="427"/>
       <c r="L84" s="213"/>
     </row>
     <row r="85" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="418"/>
+      <c r="A85" s="433"/>
       <c r="B85" s="55">
         <v>1</v>
       </c>
@@ -19896,38 +19896,38 @@
       <c r="L103" s="141"/>
     </row>
     <row r="104" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="416" t="s">
+      <c r="A104" s="431" t="s">
         <v>653</v>
       </c>
-      <c r="B104" s="431" t="s">
-        <v>0</v>
-      </c>
-      <c r="C104" s="431" t="s">
+      <c r="B104" s="428" t="s">
+        <v>0</v>
+      </c>
+      <c r="C104" s="428" t="s">
         <v>1</v>
       </c>
-      <c r="D104" s="432" t="s">
+      <c r="D104" s="429" t="s">
         <v>645</v>
       </c>
-      <c r="E104" s="433" t="s">
+      <c r="E104" s="430" t="s">
         <v>19</v>
       </c>
-      <c r="F104" s="433"/>
-      <c r="G104" s="433"/>
-      <c r="H104" s="433"/>
-      <c r="I104" s="433"/>
-      <c r="J104" s="427" t="s">
+      <c r="F104" s="430"/>
+      <c r="G104" s="430"/>
+      <c r="H104" s="430"/>
+      <c r="I104" s="430"/>
+      <c r="J104" s="424" t="s">
         <v>20</v>
       </c>
-      <c r="K104" s="429" t="s">
+      <c r="K104" s="426" t="s">
         <v>598</v>
       </c>
       <c r="L104" s="213"/>
     </row>
     <row r="105" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="417"/>
-      <c r="B105" s="431"/>
-      <c r="C105" s="431"/>
-      <c r="D105" s="432"/>
+      <c r="A105" s="432"/>
+      <c r="B105" s="428"/>
+      <c r="C105" s="428"/>
+      <c r="D105" s="429"/>
       <c r="E105" s="54" t="s">
         <v>21</v>
       </c>
@@ -19943,12 +19943,12 @@
       <c r="I105" s="54" t="s">
         <v>597</v>
       </c>
-      <c r="J105" s="428"/>
-      <c r="K105" s="430"/>
+      <c r="J105" s="425"/>
+      <c r="K105" s="427"/>
       <c r="L105" s="213"/>
     </row>
     <row r="106" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="418"/>
+      <c r="A106" s="433"/>
       <c r="B106" s="55">
         <v>1</v>
       </c>
@@ -20640,38 +20640,38 @@
       <c r="L125" s="140"/>
     </row>
     <row r="126" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="416" t="s">
+      <c r="A126" s="431" t="s">
         <v>653</v>
       </c>
-      <c r="B126" s="431" t="s">
-        <v>0</v>
-      </c>
-      <c r="C126" s="431" t="s">
+      <c r="B126" s="428" t="s">
+        <v>0</v>
+      </c>
+      <c r="C126" s="428" t="s">
         <v>1</v>
       </c>
-      <c r="D126" s="432" t="s">
+      <c r="D126" s="429" t="s">
         <v>645</v>
       </c>
-      <c r="E126" s="433" t="s">
+      <c r="E126" s="430" t="s">
         <v>19</v>
       </c>
-      <c r="F126" s="433"/>
-      <c r="G126" s="433"/>
-      <c r="H126" s="433"/>
-      <c r="I126" s="433"/>
-      <c r="J126" s="427" t="s">
+      <c r="F126" s="430"/>
+      <c r="G126" s="430"/>
+      <c r="H126" s="430"/>
+      <c r="I126" s="430"/>
+      <c r="J126" s="424" t="s">
         <v>20</v>
       </c>
-      <c r="K126" s="429" t="s">
+      <c r="K126" s="426" t="s">
         <v>598</v>
       </c>
       <c r="L126" s="213"/>
     </row>
     <row r="127" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="417"/>
-      <c r="B127" s="431"/>
-      <c r="C127" s="431"/>
-      <c r="D127" s="432"/>
+      <c r="A127" s="432"/>
+      <c r="B127" s="428"/>
+      <c r="C127" s="428"/>
+      <c r="D127" s="429"/>
       <c r="E127" s="54" t="s">
         <v>21</v>
       </c>
@@ -20687,12 +20687,12 @@
       <c r="I127" s="54" t="s">
         <v>597</v>
       </c>
-      <c r="J127" s="428"/>
-      <c r="K127" s="430"/>
+      <c r="J127" s="425"/>
+      <c r="K127" s="427"/>
       <c r="L127" s="213"/>
     </row>
     <row r="128" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="418"/>
+      <c r="A128" s="433"/>
       <c r="B128" s="55">
         <v>1</v>
       </c>
@@ -21840,38 +21840,38 @@
       <c r="L161" s="140"/>
     </row>
     <row r="162" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="416" t="s">
+      <c r="A162" s="431" t="s">
         <v>653</v>
       </c>
-      <c r="B162" s="431" t="s">
-        <v>0</v>
-      </c>
-      <c r="C162" s="431" t="s">
+      <c r="B162" s="428" t="s">
+        <v>0</v>
+      </c>
+      <c r="C162" s="428" t="s">
         <v>1</v>
       </c>
-      <c r="D162" s="432" t="s">
+      <c r="D162" s="429" t="s">
         <v>645</v>
       </c>
-      <c r="E162" s="433" t="s">
+      <c r="E162" s="430" t="s">
         <v>19</v>
       </c>
-      <c r="F162" s="433"/>
-      <c r="G162" s="433"/>
-      <c r="H162" s="433"/>
-      <c r="I162" s="433"/>
-      <c r="J162" s="427" t="s">
+      <c r="F162" s="430"/>
+      <c r="G162" s="430"/>
+      <c r="H162" s="430"/>
+      <c r="I162" s="430"/>
+      <c r="J162" s="424" t="s">
         <v>20</v>
       </c>
-      <c r="K162" s="429" t="s">
+      <c r="K162" s="426" t="s">
         <v>598</v>
       </c>
       <c r="L162" s="213"/>
     </row>
     <row r="163" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="417"/>
-      <c r="B163" s="431"/>
-      <c r="C163" s="431"/>
-      <c r="D163" s="432"/>
+      <c r="A163" s="432"/>
+      <c r="B163" s="428"/>
+      <c r="C163" s="428"/>
+      <c r="D163" s="429"/>
       <c r="E163" s="54" t="s">
         <v>21</v>
       </c>
@@ -21887,12 +21887,12 @@
       <c r="I163" s="54" t="s">
         <v>597</v>
       </c>
-      <c r="J163" s="428"/>
-      <c r="K163" s="430"/>
+      <c r="J163" s="425"/>
+      <c r="K163" s="427"/>
       <c r="L163" s="213"/>
     </row>
     <row r="164" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="418"/>
+      <c r="A164" s="433"/>
       <c r="B164" s="55">
         <v>1</v>
       </c>
@@ -22227,38 +22227,38 @@
       <c r="L173" s="140"/>
     </row>
     <row r="174" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="416" t="s">
+      <c r="A174" s="431" t="s">
         <v>653</v>
       </c>
-      <c r="B174" s="431" t="s">
-        <v>0</v>
-      </c>
-      <c r="C174" s="431" t="s">
+      <c r="B174" s="428" t="s">
+        <v>0</v>
+      </c>
+      <c r="C174" s="428" t="s">
         <v>1</v>
       </c>
-      <c r="D174" s="432" t="s">
+      <c r="D174" s="429" t="s">
         <v>645</v>
       </c>
-      <c r="E174" s="433" t="s">
+      <c r="E174" s="430" t="s">
         <v>19</v>
       </c>
-      <c r="F174" s="433"/>
-      <c r="G174" s="433"/>
-      <c r="H174" s="433"/>
-      <c r="I174" s="433"/>
-      <c r="J174" s="427" t="s">
+      <c r="F174" s="430"/>
+      <c r="G174" s="430"/>
+      <c r="H174" s="430"/>
+      <c r="I174" s="430"/>
+      <c r="J174" s="424" t="s">
         <v>20</v>
       </c>
-      <c r="K174" s="429" t="s">
+      <c r="K174" s="426" t="s">
         <v>598</v>
       </c>
       <c r="L174" s="213"/>
     </row>
     <row r="175" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="417"/>
-      <c r="B175" s="431"/>
-      <c r="C175" s="431"/>
-      <c r="D175" s="432"/>
+      <c r="A175" s="432"/>
+      <c r="B175" s="428"/>
+      <c r="C175" s="428"/>
+      <c r="D175" s="429"/>
       <c r="E175" s="54" t="s">
         <v>21</v>
       </c>
@@ -22274,12 +22274,12 @@
       <c r="I175" s="54" t="s">
         <v>597</v>
       </c>
-      <c r="J175" s="428"/>
-      <c r="K175" s="430"/>
+      <c r="J175" s="425"/>
+      <c r="K175" s="427"/>
       <c r="L175" s="213"/>
     </row>
     <row r="176" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="418"/>
+      <c r="A176" s="433"/>
       <c r="B176" s="55">
         <v>1</v>
       </c>
@@ -22734,38 +22734,38 @@
       <c r="L188" s="140"/>
     </row>
     <row r="189" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="421" t="s">
+      <c r="A189" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B189" s="424" t="s">
-        <v>0</v>
-      </c>
-      <c r="C189" s="424" t="s">
+      <c r="B189" s="421" t="s">
+        <v>0</v>
+      </c>
+      <c r="C189" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D189" s="425" t="s">
+      <c r="D189" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E189" s="426" t="s">
+      <c r="E189" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F189" s="426"/>
-      <c r="G189" s="426"/>
-      <c r="H189" s="426"/>
-      <c r="I189" s="426"/>
-      <c r="J189" s="419" t="s">
+      <c r="F189" s="423"/>
+      <c r="G189" s="423"/>
+      <c r="H189" s="423"/>
+      <c r="I189" s="423"/>
+      <c r="J189" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K189" s="421" t="s">
+      <c r="K189" s="418" t="s">
         <v>598</v>
       </c>
       <c r="L189" s="213"/>
     </row>
     <row r="190" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="423"/>
-      <c r="B190" s="424"/>
-      <c r="C190" s="424"/>
-      <c r="D190" s="425"/>
+      <c r="A190" s="420"/>
+      <c r="B190" s="421"/>
+      <c r="C190" s="421"/>
+      <c r="D190" s="422"/>
       <c r="E190" s="272" t="s">
         <v>21</v>
       </c>
@@ -22781,12 +22781,12 @@
       <c r="I190" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J190" s="420"/>
-      <c r="K190" s="422"/>
+      <c r="J190" s="417"/>
+      <c r="K190" s="419"/>
       <c r="L190" s="213"/>
     </row>
     <row r="191" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="422"/>
+      <c r="A191" s="419"/>
       <c r="B191" s="273">
         <v>1</v>
       </c>
@@ -23710,38 +23710,38 @@
       <c r="L213" s="140"/>
     </row>
     <row r="214" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="421" t="s">
+      <c r="A214" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B214" s="424" t="s">
-        <v>0</v>
-      </c>
-      <c r="C214" s="424" t="s">
+      <c r="B214" s="421" t="s">
+        <v>0</v>
+      </c>
+      <c r="C214" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D214" s="425" t="s">
+      <c r="D214" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E214" s="426" t="s">
+      <c r="E214" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F214" s="426"/>
-      <c r="G214" s="426"/>
-      <c r="H214" s="426"/>
-      <c r="I214" s="426"/>
-      <c r="J214" s="419" t="s">
+      <c r="F214" s="423"/>
+      <c r="G214" s="423"/>
+      <c r="H214" s="423"/>
+      <c r="I214" s="423"/>
+      <c r="J214" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K214" s="421" t="s">
+      <c r="K214" s="418" t="s">
         <v>598</v>
       </c>
       <c r="L214" s="213"/>
     </row>
     <row r="215" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="423"/>
-      <c r="B215" s="424"/>
-      <c r="C215" s="424"/>
-      <c r="D215" s="425"/>
+      <c r="A215" s="420"/>
+      <c r="B215" s="421"/>
+      <c r="C215" s="421"/>
+      <c r="D215" s="422"/>
       <c r="E215" s="272" t="s">
         <v>21</v>
       </c>
@@ -23757,12 +23757,12 @@
       <c r="I215" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J215" s="420"/>
-      <c r="K215" s="422"/>
+      <c r="J215" s="417"/>
+      <c r="K215" s="419"/>
       <c r="L215" s="213"/>
     </row>
     <row r="216" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="422"/>
+      <c r="A216" s="419"/>
       <c r="B216" s="273">
         <v>1</v>
       </c>
@@ -24485,38 +24485,38 @@
       <c r="L234" s="140"/>
     </row>
     <row r="235" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="421" t="s">
+      <c r="A235" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B235" s="424" t="s">
-        <v>0</v>
-      </c>
-      <c r="C235" s="424" t="s">
+      <c r="B235" s="421" t="s">
+        <v>0</v>
+      </c>
+      <c r="C235" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D235" s="425" t="s">
+      <c r="D235" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E235" s="426" t="s">
+      <c r="E235" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F235" s="426"/>
-      <c r="G235" s="426"/>
-      <c r="H235" s="426"/>
-      <c r="I235" s="426"/>
-      <c r="J235" s="419" t="s">
+      <c r="F235" s="423"/>
+      <c r="G235" s="423"/>
+      <c r="H235" s="423"/>
+      <c r="I235" s="423"/>
+      <c r="J235" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K235" s="421" t="s">
+      <c r="K235" s="418" t="s">
         <v>598</v>
       </c>
       <c r="L235" s="213"/>
     </row>
     <row r="236" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="423"/>
-      <c r="B236" s="424"/>
-      <c r="C236" s="424"/>
-      <c r="D236" s="425"/>
+      <c r="A236" s="420"/>
+      <c r="B236" s="421"/>
+      <c r="C236" s="421"/>
+      <c r="D236" s="422"/>
       <c r="E236" s="272" t="s">
         <v>21</v>
       </c>
@@ -24532,12 +24532,12 @@
       <c r="I236" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J236" s="420"/>
-      <c r="K236" s="422"/>
+      <c r="J236" s="417"/>
+      <c r="K236" s="419"/>
       <c r="L236" s="213"/>
     </row>
     <row r="237" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="422"/>
+      <c r="A237" s="419"/>
       <c r="B237" s="273">
         <v>1</v>
       </c>
@@ -25402,38 +25402,38 @@
       <c r="L257" s="140"/>
     </row>
     <row r="258" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="421" t="s">
+      <c r="A258" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B258" s="424" t="s">
-        <v>0</v>
-      </c>
-      <c r="C258" s="424" t="s">
+      <c r="B258" s="421" t="s">
+        <v>0</v>
+      </c>
+      <c r="C258" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D258" s="425" t="s">
+      <c r="D258" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E258" s="426" t="s">
+      <c r="E258" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F258" s="426"/>
-      <c r="G258" s="426"/>
-      <c r="H258" s="426"/>
-      <c r="I258" s="426"/>
-      <c r="J258" s="419" t="s">
+      <c r="F258" s="423"/>
+      <c r="G258" s="423"/>
+      <c r="H258" s="423"/>
+      <c r="I258" s="423"/>
+      <c r="J258" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K258" s="421" t="s">
+      <c r="K258" s="418" t="s">
         <v>598</v>
       </c>
       <c r="L258" s="213"/>
     </row>
     <row r="259" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="423"/>
-      <c r="B259" s="424"/>
-      <c r="C259" s="424"/>
-      <c r="D259" s="425"/>
+      <c r="A259" s="420"/>
+      <c r="B259" s="421"/>
+      <c r="C259" s="421"/>
+      <c r="D259" s="422"/>
       <c r="E259" s="272" t="s">
         <v>21</v>
       </c>
@@ -25449,12 +25449,12 @@
       <c r="I259" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J259" s="420"/>
-      <c r="K259" s="422"/>
+      <c r="J259" s="417"/>
+      <c r="K259" s="419"/>
       <c r="L259" s="213"/>
     </row>
     <row r="260" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="422"/>
+      <c r="A260" s="419"/>
       <c r="B260" s="273">
         <v>1</v>
       </c>
@@ -26135,38 +26135,38 @@
       <c r="L277" s="140"/>
     </row>
     <row r="278" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="421" t="s">
+      <c r="A278" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B278" s="424" t="s">
-        <v>0</v>
-      </c>
-      <c r="C278" s="424" t="s">
+      <c r="B278" s="421" t="s">
+        <v>0</v>
+      </c>
+      <c r="C278" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D278" s="425" t="s">
+      <c r="D278" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E278" s="426" t="s">
+      <c r="E278" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F278" s="426"/>
-      <c r="G278" s="426"/>
-      <c r="H278" s="426"/>
-      <c r="I278" s="426"/>
-      <c r="J278" s="419" t="s">
+      <c r="F278" s="423"/>
+      <c r="G278" s="423"/>
+      <c r="H278" s="423"/>
+      <c r="I278" s="423"/>
+      <c r="J278" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K278" s="421" t="s">
+      <c r="K278" s="418" t="s">
         <v>598</v>
       </c>
       <c r="L278" s="213"/>
     </row>
     <row r="279" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="423"/>
-      <c r="B279" s="424"/>
-      <c r="C279" s="424"/>
-      <c r="D279" s="425"/>
+      <c r="A279" s="420"/>
+      <c r="B279" s="421"/>
+      <c r="C279" s="421"/>
+      <c r="D279" s="422"/>
       <c r="E279" s="272" t="s">
         <v>21</v>
       </c>
@@ -26182,12 +26182,12 @@
       <c r="I279" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J279" s="420"/>
-      <c r="K279" s="422"/>
+      <c r="J279" s="417"/>
+      <c r="K279" s="419"/>
       <c r="L279" s="213"/>
     </row>
     <row r="280" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="422"/>
+      <c r="A280" s="419"/>
       <c r="B280" s="273">
         <v>1</v>
       </c>
@@ -26914,38 +26914,38 @@
       <c r="L297" s="39"/>
     </row>
     <row r="298" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A298" s="421" t="s">
+      <c r="A298" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B298" s="424" t="s">
-        <v>0</v>
-      </c>
-      <c r="C298" s="424" t="s">
+      <c r="B298" s="421" t="s">
+        <v>0</v>
+      </c>
+      <c r="C298" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D298" s="425" t="s">
+      <c r="D298" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E298" s="426" t="s">
+      <c r="E298" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F298" s="426"/>
-      <c r="G298" s="426"/>
-      <c r="H298" s="426"/>
-      <c r="I298" s="426"/>
-      <c r="J298" s="419" t="s">
+      <c r="F298" s="423"/>
+      <c r="G298" s="423"/>
+      <c r="H298" s="423"/>
+      <c r="I298" s="423"/>
+      <c r="J298" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K298" s="421" t="s">
+      <c r="K298" s="418" t="s">
         <v>598</v>
       </c>
       <c r="L298" s="213"/>
     </row>
     <row r="299" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A299" s="423"/>
-      <c r="B299" s="424"/>
-      <c r="C299" s="424"/>
-      <c r="D299" s="425"/>
+      <c r="A299" s="420"/>
+      <c r="B299" s="421"/>
+      <c r="C299" s="421"/>
+      <c r="D299" s="422"/>
       <c r="E299" s="272" t="s">
         <v>21</v>
       </c>
@@ -26961,12 +26961,12 @@
       <c r="I299" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J299" s="420"/>
-      <c r="K299" s="422"/>
+      <c r="J299" s="417"/>
+      <c r="K299" s="419"/>
       <c r="L299" s="213"/>
     </row>
     <row r="300" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A300" s="422"/>
+      <c r="A300" s="419"/>
       <c r="B300" s="273">
         <v>1</v>
       </c>
@@ -27373,38 +27373,38 @@
       <c r="L310" s="39"/>
     </row>
     <row r="311" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A311" s="421" t="s">
+      <c r="A311" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B311" s="424" t="s">
-        <v>0</v>
-      </c>
-      <c r="C311" s="424" t="s">
+      <c r="B311" s="421" t="s">
+        <v>0</v>
+      </c>
+      <c r="C311" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D311" s="425" t="s">
+      <c r="D311" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E311" s="426" t="s">
+      <c r="E311" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F311" s="426"/>
-      <c r="G311" s="426"/>
-      <c r="H311" s="426"/>
-      <c r="I311" s="426"/>
-      <c r="J311" s="419" t="s">
+      <c r="F311" s="423"/>
+      <c r="G311" s="423"/>
+      <c r="H311" s="423"/>
+      <c r="I311" s="423"/>
+      <c r="J311" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K311" s="421" t="s">
+      <c r="K311" s="418" t="s">
         <v>598</v>
       </c>
       <c r="L311" s="213"/>
     </row>
     <row r="312" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A312" s="423"/>
-      <c r="B312" s="424"/>
-      <c r="C312" s="424"/>
-      <c r="D312" s="425"/>
+      <c r="A312" s="420"/>
+      <c r="B312" s="421"/>
+      <c r="C312" s="421"/>
+      <c r="D312" s="422"/>
       <c r="E312" s="272" t="s">
         <v>21</v>
       </c>
@@ -27420,12 +27420,12 @@
       <c r="I312" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J312" s="420"/>
-      <c r="K312" s="422"/>
+      <c r="J312" s="417"/>
+      <c r="K312" s="419"/>
       <c r="L312" s="213"/>
     </row>
     <row r="313" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A313" s="422"/>
+      <c r="A313" s="419"/>
       <c r="B313" s="273">
         <v>1</v>
       </c>
@@ -28570,6 +28570,87 @@
     </row>
   </sheetData>
   <mergeCells count="105">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="A162:A164"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="J298:J299"/>
+    <mergeCell ref="K298:K299"/>
+    <mergeCell ref="A298:A300"/>
+    <mergeCell ref="B298:B299"/>
+    <mergeCell ref="C298:C299"/>
+    <mergeCell ref="D298:D299"/>
+    <mergeCell ref="E298:I298"/>
+    <mergeCell ref="A174:A176"/>
+    <mergeCell ref="A189:A191"/>
+    <mergeCell ref="A214:A216"/>
+    <mergeCell ref="B278:B279"/>
+    <mergeCell ref="C278:C279"/>
+    <mergeCell ref="B258:B259"/>
+    <mergeCell ref="C258:C259"/>
+    <mergeCell ref="B235:B236"/>
+    <mergeCell ref="C235:C236"/>
+    <mergeCell ref="A235:A237"/>
+    <mergeCell ref="A258:A260"/>
+    <mergeCell ref="A278:A280"/>
+    <mergeCell ref="D278:D279"/>
+    <mergeCell ref="J278:J279"/>
+    <mergeCell ref="K278:K279"/>
+    <mergeCell ref="J235:J236"/>
+    <mergeCell ref="K235:K236"/>
+    <mergeCell ref="D258:D259"/>
+    <mergeCell ref="J258:J259"/>
+    <mergeCell ref="K258:K259"/>
+    <mergeCell ref="E278:I278"/>
+    <mergeCell ref="E258:I258"/>
+    <mergeCell ref="E235:I235"/>
+    <mergeCell ref="D235:D236"/>
+    <mergeCell ref="J189:J190"/>
+    <mergeCell ref="K189:K190"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="C214:C215"/>
+    <mergeCell ref="D214:D215"/>
+    <mergeCell ref="J214:J215"/>
+    <mergeCell ref="K214:K215"/>
+    <mergeCell ref="E189:I189"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="D189:D190"/>
+    <mergeCell ref="E214:I214"/>
+    <mergeCell ref="J162:J163"/>
+    <mergeCell ref="K162:K163"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="D174:D175"/>
+    <mergeCell ref="J174:J175"/>
+    <mergeCell ref="K174:K175"/>
+    <mergeCell ref="E162:I162"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="D162:D163"/>
+    <mergeCell ref="E174:I174"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="J126:J127"/>
+    <mergeCell ref="K126:K127"/>
+    <mergeCell ref="E104:I104"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="E126:I126"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="K83:K84"/>
+    <mergeCell ref="E64:I64"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E83:I83"/>
+    <mergeCell ref="J104:J105"/>
+    <mergeCell ref="K104:K105"/>
     <mergeCell ref="J311:J312"/>
     <mergeCell ref="K311:K312"/>
     <mergeCell ref="A311:A313"/>
@@ -28594,87 +28675,6 @@
     <mergeCell ref="B83:B84"/>
     <mergeCell ref="C83:C84"/>
     <mergeCell ref="D83:D84"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="K83:K84"/>
-    <mergeCell ref="E64:I64"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E83:I83"/>
-    <mergeCell ref="J104:J105"/>
-    <mergeCell ref="K104:K105"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="J126:J127"/>
-    <mergeCell ref="K126:K127"/>
-    <mergeCell ref="E104:I104"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="E126:I126"/>
-    <mergeCell ref="J162:J163"/>
-    <mergeCell ref="K162:K163"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="D174:D175"/>
-    <mergeCell ref="J174:J175"/>
-    <mergeCell ref="K174:K175"/>
-    <mergeCell ref="E162:I162"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="D162:D163"/>
-    <mergeCell ref="E174:I174"/>
-    <mergeCell ref="J189:J190"/>
-    <mergeCell ref="K189:K190"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="C214:C215"/>
-    <mergeCell ref="D214:D215"/>
-    <mergeCell ref="J214:J215"/>
-    <mergeCell ref="K214:K215"/>
-    <mergeCell ref="E189:I189"/>
-    <mergeCell ref="B189:B190"/>
-    <mergeCell ref="C189:C190"/>
-    <mergeCell ref="D189:D190"/>
-    <mergeCell ref="E214:I214"/>
-    <mergeCell ref="A258:A260"/>
-    <mergeCell ref="A278:A280"/>
-    <mergeCell ref="D278:D279"/>
-    <mergeCell ref="J278:J279"/>
-    <mergeCell ref="K278:K279"/>
-    <mergeCell ref="J235:J236"/>
-    <mergeCell ref="K235:K236"/>
-    <mergeCell ref="D258:D259"/>
-    <mergeCell ref="J258:J259"/>
-    <mergeCell ref="K258:K259"/>
-    <mergeCell ref="E278:I278"/>
-    <mergeCell ref="E258:I258"/>
-    <mergeCell ref="E235:I235"/>
-    <mergeCell ref="D235:D236"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="A162:A164"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="J298:J299"/>
-    <mergeCell ref="K298:K299"/>
-    <mergeCell ref="A298:A300"/>
-    <mergeCell ref="B298:B299"/>
-    <mergeCell ref="C298:C299"/>
-    <mergeCell ref="D298:D299"/>
-    <mergeCell ref="E298:I298"/>
-    <mergeCell ref="A174:A176"/>
-    <mergeCell ref="A189:A191"/>
-    <mergeCell ref="A214:A216"/>
-    <mergeCell ref="B278:B279"/>
-    <mergeCell ref="C278:C279"/>
-    <mergeCell ref="B258:B259"/>
-    <mergeCell ref="C258:C259"/>
-    <mergeCell ref="B235:B236"/>
-    <mergeCell ref="C235:C236"/>
-    <mergeCell ref="A235:A237"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.19685039370078741" bottom="0" header="0.19685039370078741" footer="0"/>
   <pageSetup paperSize="9" scale="91" orientation="landscape" r:id="rId1"/>
@@ -28686,7 +28686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A251" workbookViewId="0">
+    <sheetView topLeftCell="A269" workbookViewId="0">
       <selection activeCell="D248" sqref="D248"/>
     </sheetView>
   </sheetViews>
@@ -28718,38 +28718,38 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="416" t="s">
+      <c r="A3" s="431" t="s">
         <v>653</v>
       </c>
-      <c r="B3" s="431" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="431" t="s">
+      <c r="B3" s="428" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="428" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="432" t="s">
+      <c r="D3" s="429" t="s">
         <v>645</v>
       </c>
-      <c r="E3" s="433" t="s">
+      <c r="E3" s="430" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="433"/>
-      <c r="G3" s="433"/>
-      <c r="H3" s="433"/>
-      <c r="I3" s="433"/>
-      <c r="J3" s="427" t="s">
+      <c r="F3" s="430"/>
+      <c r="G3" s="430"/>
+      <c r="H3" s="430"/>
+      <c r="I3" s="430"/>
+      <c r="J3" s="424" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="429" t="s">
+      <c r="K3" s="426" t="s">
         <v>598</v>
       </c>
       <c r="L3" s="213"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="417"/>
-      <c r="B4" s="431"/>
-      <c r="C4" s="431"/>
-      <c r="D4" s="432"/>
+      <c r="A4" s="432"/>
+      <c r="B4" s="428"/>
+      <c r="C4" s="428"/>
+      <c r="D4" s="429"/>
       <c r="E4" s="54" t="s">
         <v>21</v>
       </c>
@@ -28765,12 +28765,12 @@
       <c r="I4" s="54" t="s">
         <v>597</v>
       </c>
-      <c r="J4" s="428"/>
-      <c r="K4" s="430"/>
+      <c r="J4" s="425"/>
+      <c r="K4" s="427"/>
       <c r="L4" s="213"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="418"/>
+      <c r="A5" s="433"/>
       <c r="B5" s="55">
         <v>1</v>
       </c>
@@ -29100,38 +29100,38 @@
       <c r="L14" s="140"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="416" t="s">
+      <c r="A15" s="431" t="s">
         <v>653</v>
       </c>
-      <c r="B15" s="431" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="431" t="s">
+      <c r="B15" s="428" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="428" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="432" t="s">
+      <c r="D15" s="429" t="s">
         <v>645</v>
       </c>
-      <c r="E15" s="433" t="s">
+      <c r="E15" s="430" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="433"/>
-      <c r="G15" s="433"/>
-      <c r="H15" s="433"/>
-      <c r="I15" s="433"/>
-      <c r="J15" s="427" t="s">
+      <c r="F15" s="430"/>
+      <c r="G15" s="430"/>
+      <c r="H15" s="430"/>
+      <c r="I15" s="430"/>
+      <c r="J15" s="424" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="429" t="s">
+      <c r="K15" s="426" t="s">
         <v>598</v>
       </c>
       <c r="L15" s="213"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="417"/>
-      <c r="B16" s="431"/>
-      <c r="C16" s="431"/>
-      <c r="D16" s="432"/>
+      <c r="A16" s="432"/>
+      <c r="B16" s="428"/>
+      <c r="C16" s="428"/>
+      <c r="D16" s="429"/>
       <c r="E16" s="54" t="s">
         <v>21</v>
       </c>
@@ -29147,12 +29147,12 @@
       <c r="I16" s="54" t="s">
         <v>597</v>
       </c>
-      <c r="J16" s="428"/>
-      <c r="K16" s="430"/>
+      <c r="J16" s="425"/>
+      <c r="K16" s="427"/>
       <c r="L16" s="213"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="418"/>
+      <c r="A17" s="433"/>
       <c r="B17" s="55">
         <v>1</v>
       </c>
@@ -29408,38 +29408,38 @@
       <c r="L24" s="140"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="416" t="s">
+      <c r="A25" s="431" t="s">
         <v>653</v>
       </c>
-      <c r="B25" s="431" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="431" t="s">
+      <c r="B25" s="428" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="428" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="432" t="s">
+      <c r="D25" s="429" t="s">
         <v>645</v>
       </c>
-      <c r="E25" s="433" t="s">
+      <c r="E25" s="430" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="433"/>
-      <c r="G25" s="433"/>
-      <c r="H25" s="433"/>
-      <c r="I25" s="433"/>
-      <c r="J25" s="427" t="s">
+      <c r="F25" s="430"/>
+      <c r="G25" s="430"/>
+      <c r="H25" s="430"/>
+      <c r="I25" s="430"/>
+      <c r="J25" s="424" t="s">
         <v>20</v>
       </c>
-      <c r="K25" s="429" t="s">
+      <c r="K25" s="426" t="s">
         <v>598</v>
       </c>
       <c r="L25" s="213"/>
     </row>
     <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="417"/>
-      <c r="B26" s="431"/>
-      <c r="C26" s="431"/>
-      <c r="D26" s="432"/>
+      <c r="A26" s="432"/>
+      <c r="B26" s="428"/>
+      <c r="C26" s="428"/>
+      <c r="D26" s="429"/>
       <c r="E26" s="54" t="s">
         <v>21</v>
       </c>
@@ -29455,12 +29455,12 @@
       <c r="I26" s="54" t="s">
         <v>597</v>
       </c>
-      <c r="J26" s="428"/>
-      <c r="K26" s="430"/>
+      <c r="J26" s="425"/>
+      <c r="K26" s="427"/>
       <c r="L26" s="213"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="418"/>
+      <c r="A27" s="433"/>
       <c r="B27" s="110">
         <v>1</v>
       </c>
@@ -29711,38 +29711,38 @@
       <c r="L34" s="140"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="416" t="s">
+      <c r="A35" s="431" t="s">
         <v>653</v>
       </c>
-      <c r="B35" s="431" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="431" t="s">
+      <c r="B35" s="428" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="428" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="432" t="s">
+      <c r="D35" s="429" t="s">
         <v>645</v>
       </c>
-      <c r="E35" s="433" t="s">
+      <c r="E35" s="430" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="433"/>
-      <c r="G35" s="433"/>
-      <c r="H35" s="433"/>
-      <c r="I35" s="433"/>
-      <c r="J35" s="427" t="s">
+      <c r="F35" s="430"/>
+      <c r="G35" s="430"/>
+      <c r="H35" s="430"/>
+      <c r="I35" s="430"/>
+      <c r="J35" s="424" t="s">
         <v>20</v>
       </c>
-      <c r="K35" s="429" t="s">
+      <c r="K35" s="426" t="s">
         <v>598</v>
       </c>
       <c r="L35" s="213"/>
     </row>
     <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="417"/>
-      <c r="B36" s="431"/>
-      <c r="C36" s="431"/>
-      <c r="D36" s="432"/>
+      <c r="A36" s="432"/>
+      <c r="B36" s="428"/>
+      <c r="C36" s="428"/>
+      <c r="D36" s="429"/>
       <c r="E36" s="54" t="s">
         <v>21</v>
       </c>
@@ -29758,12 +29758,12 @@
       <c r="I36" s="54" t="s">
         <v>597</v>
       </c>
-      <c r="J36" s="428"/>
-      <c r="K36" s="430"/>
+      <c r="J36" s="425"/>
+      <c r="K36" s="427"/>
       <c r="L36" s="213"/>
     </row>
     <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="418"/>
+      <c r="A37" s="433"/>
       <c r="B37" s="110">
         <v>1</v>
       </c>
@@ -29981,38 +29981,38 @@
       <c r="L43" s="140"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="416" t="s">
+      <c r="A44" s="431" t="s">
         <v>653</v>
       </c>
-      <c r="B44" s="431" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="431" t="s">
+      <c r="B44" s="428" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="428" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="432" t="s">
+      <c r="D44" s="429" t="s">
         <v>645</v>
       </c>
-      <c r="E44" s="433" t="s">
+      <c r="E44" s="430" t="s">
         <v>19</v>
       </c>
-      <c r="F44" s="433"/>
-      <c r="G44" s="433"/>
-      <c r="H44" s="433"/>
-      <c r="I44" s="433"/>
-      <c r="J44" s="427" t="s">
+      <c r="F44" s="430"/>
+      <c r="G44" s="430"/>
+      <c r="H44" s="430"/>
+      <c r="I44" s="430"/>
+      <c r="J44" s="424" t="s">
         <v>20</v>
       </c>
-      <c r="K44" s="429" t="s">
+      <c r="K44" s="426" t="s">
         <v>598</v>
       </c>
       <c r="L44" s="213"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="417"/>
-      <c r="B45" s="431"/>
-      <c r="C45" s="431"/>
-      <c r="D45" s="432"/>
+      <c r="A45" s="432"/>
+      <c r="B45" s="428"/>
+      <c r="C45" s="428"/>
+      <c r="D45" s="429"/>
       <c r="E45" s="54" t="s">
         <v>21</v>
       </c>
@@ -30028,12 +30028,12 @@
       <c r="I45" s="54" t="s">
         <v>597</v>
       </c>
-      <c r="J45" s="428"/>
-      <c r="K45" s="430"/>
+      <c r="J45" s="425"/>
+      <c r="K45" s="427"/>
       <c r="L45" s="213"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="418"/>
+      <c r="A46" s="433"/>
       <c r="B46" s="110">
         <v>1</v>
       </c>
@@ -30362,38 +30362,38 @@
       <c r="L57" s="140"/>
     </row>
     <row r="58" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="421" t="s">
+      <c r="A58" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B58" s="424" t="s">
-        <v>0</v>
-      </c>
-      <c r="C58" s="424" t="s">
+      <c r="B58" s="421" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D58" s="425" t="s">
+      <c r="D58" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E58" s="426" t="s">
+      <c r="E58" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F58" s="426"/>
-      <c r="G58" s="426"/>
-      <c r="H58" s="426"/>
-      <c r="I58" s="426"/>
-      <c r="J58" s="419" t="s">
+      <c r="F58" s="423"/>
+      <c r="G58" s="423"/>
+      <c r="H58" s="423"/>
+      <c r="I58" s="423"/>
+      <c r="J58" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K58" s="421" t="s">
+      <c r="K58" s="418" t="s">
         <v>598</v>
       </c>
       <c r="L58" s="213"/>
     </row>
     <row r="59" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="423"/>
-      <c r="B59" s="424"/>
-      <c r="C59" s="424"/>
-      <c r="D59" s="425"/>
+      <c r="A59" s="420"/>
+      <c r="B59" s="421"/>
+      <c r="C59" s="421"/>
+      <c r="D59" s="422"/>
       <c r="E59" s="272" t="s">
         <v>21</v>
       </c>
@@ -30409,12 +30409,12 @@
       <c r="I59" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J59" s="420"/>
-      <c r="K59" s="422"/>
+      <c r="J59" s="417"/>
+      <c r="K59" s="419"/>
       <c r="L59" s="213"/>
     </row>
     <row r="60" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="422"/>
+      <c r="A60" s="419"/>
       <c r="B60" s="273">
         <v>1</v>
       </c>
@@ -30713,38 +30713,38 @@
       <c r="L68" s="140"/>
     </row>
     <row r="69" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="421" t="s">
+      <c r="A69" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B69" s="424" t="s">
-        <v>0</v>
-      </c>
-      <c r="C69" s="424" t="s">
+      <c r="B69" s="421" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D69" s="425" t="s">
+      <c r="D69" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E69" s="426" t="s">
+      <c r="E69" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F69" s="426"/>
-      <c r="G69" s="426"/>
-      <c r="H69" s="426"/>
-      <c r="I69" s="426"/>
-      <c r="J69" s="419" t="s">
+      <c r="F69" s="423"/>
+      <c r="G69" s="423"/>
+      <c r="H69" s="423"/>
+      <c r="I69" s="423"/>
+      <c r="J69" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K69" s="421" t="s">
+      <c r="K69" s="418" t="s">
         <v>598</v>
       </c>
       <c r="L69" s="213"/>
     </row>
     <row r="70" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="423"/>
-      <c r="B70" s="424"/>
-      <c r="C70" s="424"/>
-      <c r="D70" s="425"/>
+      <c r="A70" s="420"/>
+      <c r="B70" s="421"/>
+      <c r="C70" s="421"/>
+      <c r="D70" s="422"/>
       <c r="E70" s="272" t="s">
         <v>21</v>
       </c>
@@ -30760,12 +30760,12 @@
       <c r="I70" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J70" s="420"/>
-      <c r="K70" s="422"/>
+      <c r="J70" s="417"/>
+      <c r="K70" s="419"/>
       <c r="L70" s="213"/>
     </row>
     <row r="71" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="422"/>
+      <c r="A71" s="419"/>
       <c r="B71" s="273">
         <v>1</v>
       </c>
@@ -31104,38 +31104,38 @@
       <c r="L80" s="140"/>
     </row>
     <row r="81" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="421" t="s">
+      <c r="A81" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B81" s="424" t="s">
-        <v>0</v>
-      </c>
-      <c r="C81" s="424" t="s">
+      <c r="B81" s="421" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D81" s="425" t="s">
+      <c r="D81" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E81" s="426" t="s">
+      <c r="E81" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F81" s="426"/>
-      <c r="G81" s="426"/>
-      <c r="H81" s="426"/>
-      <c r="I81" s="426"/>
-      <c r="J81" s="419" t="s">
+      <c r="F81" s="423"/>
+      <c r="G81" s="423"/>
+      <c r="H81" s="423"/>
+      <c r="I81" s="423"/>
+      <c r="J81" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K81" s="421" t="s">
+      <c r="K81" s="418" t="s">
         <v>598</v>
       </c>
       <c r="L81" s="213"/>
     </row>
     <row r="82" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="423"/>
-      <c r="B82" s="424"/>
-      <c r="C82" s="424"/>
-      <c r="D82" s="425"/>
+      <c r="A82" s="420"/>
+      <c r="B82" s="421"/>
+      <c r="C82" s="421"/>
+      <c r="D82" s="422"/>
       <c r="E82" s="272" t="s">
         <v>21</v>
       </c>
@@ -31151,12 +31151,12 @@
       <c r="I82" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J82" s="420"/>
-      <c r="K82" s="422"/>
+      <c r="J82" s="417"/>
+      <c r="K82" s="419"/>
       <c r="L82" s="213"/>
     </row>
     <row r="83" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="422"/>
+      <c r="A83" s="419"/>
       <c r="B83" s="273">
         <v>1</v>
       </c>
@@ -31531,38 +31531,38 @@
       <c r="L93" s="140"/>
     </row>
     <row r="94" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="421" t="s">
+      <c r="A94" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B94" s="424" t="s">
-        <v>0</v>
-      </c>
-      <c r="C94" s="424" t="s">
+      <c r="B94" s="421" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D94" s="425" t="s">
+      <c r="D94" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E94" s="426" t="s">
+      <c r="E94" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F94" s="426"/>
-      <c r="G94" s="426"/>
-      <c r="H94" s="426"/>
-      <c r="I94" s="426"/>
-      <c r="J94" s="419" t="s">
+      <c r="F94" s="423"/>
+      <c r="G94" s="423"/>
+      <c r="H94" s="423"/>
+      <c r="I94" s="423"/>
+      <c r="J94" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K94" s="421" t="s">
+      <c r="K94" s="418" t="s">
         <v>598</v>
       </c>
       <c r="L94" s="213"/>
     </row>
     <row r="95" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="423"/>
-      <c r="B95" s="424"/>
-      <c r="C95" s="424"/>
-      <c r="D95" s="425"/>
+      <c r="A95" s="420"/>
+      <c r="B95" s="421"/>
+      <c r="C95" s="421"/>
+      <c r="D95" s="422"/>
       <c r="E95" s="272" t="s">
         <v>21</v>
       </c>
@@ -31578,12 +31578,12 @@
       <c r="I95" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J95" s="420"/>
-      <c r="K95" s="422"/>
+      <c r="J95" s="417"/>
+      <c r="K95" s="419"/>
       <c r="L95" s="213"/>
     </row>
     <row r="96" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="422"/>
+      <c r="A96" s="419"/>
       <c r="B96" s="273">
         <v>1</v>
       </c>
@@ -31978,38 +31978,38 @@
       <c r="L107" s="114"/>
     </row>
     <row r="108" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="421" t="s">
+      <c r="A108" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B108" s="424" t="s">
-        <v>0</v>
-      </c>
-      <c r="C108" s="424" t="s">
+      <c r="B108" s="421" t="s">
+        <v>0</v>
+      </c>
+      <c r="C108" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D108" s="425" t="s">
+      <c r="D108" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E108" s="426" t="s">
+      <c r="E108" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F108" s="426"/>
-      <c r="G108" s="426"/>
-      <c r="H108" s="426"/>
-      <c r="I108" s="426"/>
-      <c r="J108" s="419" t="s">
+      <c r="F108" s="423"/>
+      <c r="G108" s="423"/>
+      <c r="H108" s="423"/>
+      <c r="I108" s="423"/>
+      <c r="J108" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K108" s="421" t="s">
+      <c r="K108" s="418" t="s">
         <v>598</v>
       </c>
       <c r="L108" s="213"/>
     </row>
     <row r="109" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="423"/>
-      <c r="B109" s="424"/>
-      <c r="C109" s="424"/>
-      <c r="D109" s="425"/>
+      <c r="A109" s="420"/>
+      <c r="B109" s="421"/>
+      <c r="C109" s="421"/>
+      <c r="D109" s="422"/>
       <c r="E109" s="272" t="s">
         <v>21</v>
       </c>
@@ -32025,12 +32025,12 @@
       <c r="I109" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J109" s="420"/>
-      <c r="K109" s="422"/>
+      <c r="J109" s="417"/>
+      <c r="K109" s="419"/>
       <c r="L109" s="213"/>
     </row>
     <row r="110" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="422"/>
+      <c r="A110" s="419"/>
       <c r="B110" s="273">
         <v>1</v>
       </c>
@@ -32249,38 +32249,38 @@
       <c r="L116" s="140"/>
     </row>
     <row r="117" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="421" t="s">
+      <c r="A117" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B117" s="424" t="s">
+      <c r="B117" s="421" t="s">
         <v>704</v>
       </c>
-      <c r="C117" s="424" t="s">
+      <c r="C117" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D117" s="425" t="s">
+      <c r="D117" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E117" s="426" t="s">
+      <c r="E117" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F117" s="426"/>
-      <c r="G117" s="426"/>
-      <c r="H117" s="426"/>
-      <c r="I117" s="426"/>
-      <c r="J117" s="419" t="s">
+      <c r="F117" s="423"/>
+      <c r="G117" s="423"/>
+      <c r="H117" s="423"/>
+      <c r="I117" s="423"/>
+      <c r="J117" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K117" s="421" t="s">
+      <c r="K117" s="418" t="s">
         <v>598</v>
       </c>
       <c r="L117" s="213"/>
     </row>
     <row r="118" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="423"/>
-      <c r="B118" s="424"/>
-      <c r="C118" s="424"/>
-      <c r="D118" s="425"/>
+      <c r="A118" s="420"/>
+      <c r="B118" s="421"/>
+      <c r="C118" s="421"/>
+      <c r="D118" s="422"/>
       <c r="E118" s="272" t="s">
         <v>21</v>
       </c>
@@ -32296,12 +32296,12 @@
       <c r="I118" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J118" s="420"/>
-      <c r="K118" s="422"/>
+      <c r="J118" s="417"/>
+      <c r="K118" s="419"/>
       <c r="L118" s="213"/>
     </row>
     <row r="119" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="422"/>
+      <c r="A119" s="419"/>
       <c r="B119" s="273">
         <v>1</v>
       </c>
@@ -32480,38 +32480,38 @@
       <c r="L124" s="140"/>
     </row>
     <row r="125" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="421" t="s">
+      <c r="A125" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B125" s="424" t="s">
+      <c r="B125" s="421" t="s">
         <v>704</v>
       </c>
-      <c r="C125" s="424" t="s">
+      <c r="C125" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D125" s="425" t="s">
+      <c r="D125" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E125" s="426" t="s">
+      <c r="E125" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F125" s="426"/>
-      <c r="G125" s="426"/>
-      <c r="H125" s="426"/>
-      <c r="I125" s="426"/>
-      <c r="J125" s="419" t="s">
+      <c r="F125" s="423"/>
+      <c r="G125" s="423"/>
+      <c r="H125" s="423"/>
+      <c r="I125" s="423"/>
+      <c r="J125" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K125" s="421" t="s">
+      <c r="K125" s="418" t="s">
         <v>598</v>
       </c>
       <c r="L125" s="213"/>
     </row>
     <row r="126" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="423"/>
-      <c r="B126" s="424"/>
-      <c r="C126" s="424"/>
-      <c r="D126" s="425"/>
+      <c r="A126" s="420"/>
+      <c r="B126" s="421"/>
+      <c r="C126" s="421"/>
+      <c r="D126" s="422"/>
       <c r="E126" s="272" t="s">
         <v>21</v>
       </c>
@@ -32527,12 +32527,12 @@
       <c r="I126" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J126" s="420"/>
-      <c r="K126" s="422"/>
+      <c r="J126" s="417"/>
+      <c r="K126" s="419"/>
       <c r="L126" s="213"/>
     </row>
     <row r="127" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="422"/>
+      <c r="A127" s="419"/>
       <c r="B127" s="273">
         <v>1</v>
       </c>
@@ -32709,38 +32709,38 @@
       <c r="L132" s="140"/>
     </row>
     <row r="133" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="421" t="s">
+      <c r="A133" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B133" s="424" t="s">
+      <c r="B133" s="421" t="s">
         <v>704</v>
       </c>
-      <c r="C133" s="424" t="s">
+      <c r="C133" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D133" s="425" t="s">
+      <c r="D133" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E133" s="426" t="s">
+      <c r="E133" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F133" s="426"/>
-      <c r="G133" s="426"/>
-      <c r="H133" s="426"/>
-      <c r="I133" s="426"/>
-      <c r="J133" s="419" t="s">
+      <c r="F133" s="423"/>
+      <c r="G133" s="423"/>
+      <c r="H133" s="423"/>
+      <c r="I133" s="423"/>
+      <c r="J133" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K133" s="421" t="s">
+      <c r="K133" s="418" t="s">
         <v>598</v>
       </c>
       <c r="L133" s="213"/>
     </row>
     <row r="134" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="423"/>
-      <c r="B134" s="424"/>
-      <c r="C134" s="424"/>
-      <c r="D134" s="425"/>
+      <c r="A134" s="420"/>
+      <c r="B134" s="421"/>
+      <c r="C134" s="421"/>
+      <c r="D134" s="422"/>
       <c r="E134" s="272" t="s">
         <v>21</v>
       </c>
@@ -32756,12 +32756,12 @@
       <c r="I134" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J134" s="420"/>
-      <c r="K134" s="422"/>
+      <c r="J134" s="417"/>
+      <c r="K134" s="419"/>
       <c r="L134" s="213"/>
     </row>
     <row r="135" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="422"/>
+      <c r="A135" s="419"/>
       <c r="B135" s="273">
         <v>1</v>
       </c>
@@ -33017,38 +33017,38 @@
       <c r="L142" s="140"/>
     </row>
     <row r="143" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="421" t="s">
+      <c r="A143" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B143" s="424" t="s">
+      <c r="B143" s="421" t="s">
         <v>704</v>
       </c>
-      <c r="C143" s="424" t="s">
+      <c r="C143" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D143" s="425" t="s">
+      <c r="D143" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E143" s="426" t="s">
+      <c r="E143" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F143" s="426"/>
-      <c r="G143" s="426"/>
-      <c r="H143" s="426"/>
-      <c r="I143" s="426"/>
-      <c r="J143" s="419" t="s">
+      <c r="F143" s="423"/>
+      <c r="G143" s="423"/>
+      <c r="H143" s="423"/>
+      <c r="I143" s="423"/>
+      <c r="J143" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K143" s="421" t="s">
+      <c r="K143" s="418" t="s">
         <v>598</v>
       </c>
       <c r="L143" s="213"/>
     </row>
     <row r="144" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="423"/>
-      <c r="B144" s="424"/>
-      <c r="C144" s="424"/>
-      <c r="D144" s="425"/>
+      <c r="A144" s="420"/>
+      <c r="B144" s="421"/>
+      <c r="C144" s="421"/>
+      <c r="D144" s="422"/>
       <c r="E144" s="272" t="s">
         <v>21</v>
       </c>
@@ -33064,12 +33064,12 @@
       <c r="I144" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J144" s="420"/>
-      <c r="K144" s="422"/>
+      <c r="J144" s="417"/>
+      <c r="K144" s="419"/>
       <c r="L144" s="213"/>
     </row>
     <row r="145" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="422"/>
+      <c r="A145" s="419"/>
       <c r="B145" s="273">
         <v>1</v>
       </c>
@@ -33363,38 +33363,38 @@
       <c r="L153" s="140"/>
     </row>
     <row r="154" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="421" t="s">
+      <c r="A154" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B154" s="424" t="s">
+      <c r="B154" s="421" t="s">
         <v>704</v>
       </c>
-      <c r="C154" s="424" t="s">
+      <c r="C154" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D154" s="425" t="s">
+      <c r="D154" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E154" s="426" t="s">
+      <c r="E154" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F154" s="426"/>
-      <c r="G154" s="426"/>
-      <c r="H154" s="426"/>
-      <c r="I154" s="426"/>
-      <c r="J154" s="419" t="s">
+      <c r="F154" s="423"/>
+      <c r="G154" s="423"/>
+      <c r="H154" s="423"/>
+      <c r="I154" s="423"/>
+      <c r="J154" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K154" s="421" t="s">
+      <c r="K154" s="418" t="s">
         <v>598</v>
       </c>
       <c r="L154" s="213"/>
     </row>
     <row r="155" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="423"/>
-      <c r="B155" s="424"/>
-      <c r="C155" s="424"/>
-      <c r="D155" s="425"/>
+      <c r="A155" s="420"/>
+      <c r="B155" s="421"/>
+      <c r="C155" s="421"/>
+      <c r="D155" s="422"/>
       <c r="E155" s="272" t="s">
         <v>21</v>
       </c>
@@ -33410,12 +33410,12 @@
       <c r="I155" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J155" s="420"/>
-      <c r="K155" s="422"/>
+      <c r="J155" s="417"/>
+      <c r="K155" s="419"/>
       <c r="L155" s="213"/>
     </row>
     <row r="156" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="422"/>
+      <c r="A156" s="419"/>
       <c r="B156" s="273">
         <v>1</v>
       </c>
@@ -33674,38 +33674,38 @@
       <c r="L163" s="140"/>
     </row>
     <row r="164" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="421" t="s">
+      <c r="A164" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B164" s="424" t="s">
+      <c r="B164" s="421" t="s">
         <v>704</v>
       </c>
-      <c r="C164" s="424" t="s">
+      <c r="C164" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D164" s="425" t="s">
+      <c r="D164" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E164" s="426" t="s">
+      <c r="E164" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F164" s="426"/>
-      <c r="G164" s="426"/>
-      <c r="H164" s="426"/>
-      <c r="I164" s="426"/>
-      <c r="J164" s="419" t="s">
+      <c r="F164" s="423"/>
+      <c r="G164" s="423"/>
+      <c r="H164" s="423"/>
+      <c r="I164" s="423"/>
+      <c r="J164" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K164" s="421" t="s">
+      <c r="K164" s="418" t="s">
         <v>598</v>
       </c>
       <c r="L164" s="213"/>
     </row>
     <row r="165" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="423"/>
-      <c r="B165" s="424"/>
-      <c r="C165" s="424"/>
-      <c r="D165" s="425"/>
+      <c r="A165" s="420"/>
+      <c r="B165" s="421"/>
+      <c r="C165" s="421"/>
+      <c r="D165" s="422"/>
       <c r="E165" s="272" t="s">
         <v>21</v>
       </c>
@@ -33721,12 +33721,12 @@
       <c r="I165" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J165" s="420"/>
-      <c r="K165" s="422"/>
+      <c r="J165" s="417"/>
+      <c r="K165" s="419"/>
       <c r="L165" s="213"/>
     </row>
     <row r="166" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="422"/>
+      <c r="A166" s="419"/>
       <c r="B166" s="273">
         <v>1</v>
       </c>
@@ -34425,38 +34425,38 @@
       <c r="L184" s="140"/>
     </row>
     <row r="185" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="421" t="s">
+      <c r="A185" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B185" s="424" t="s">
+      <c r="B185" s="421" t="s">
         <v>704</v>
       </c>
-      <c r="C185" s="424" t="s">
+      <c r="C185" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D185" s="425" t="s">
+      <c r="D185" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E185" s="426" t="s">
+      <c r="E185" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F185" s="426"/>
-      <c r="G185" s="426"/>
-      <c r="H185" s="426"/>
-      <c r="I185" s="426"/>
-      <c r="J185" s="419" t="s">
+      <c r="F185" s="423"/>
+      <c r="G185" s="423"/>
+      <c r="H185" s="423"/>
+      <c r="I185" s="423"/>
+      <c r="J185" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K185" s="421" t="s">
+      <c r="K185" s="418" t="s">
         <v>598</v>
       </c>
       <c r="L185" s="213"/>
     </row>
     <row r="186" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="423"/>
-      <c r="B186" s="424"/>
-      <c r="C186" s="424"/>
-      <c r="D186" s="425"/>
+      <c r="A186" s="420"/>
+      <c r="B186" s="421"/>
+      <c r="C186" s="421"/>
+      <c r="D186" s="422"/>
       <c r="E186" s="272" t="s">
         <v>21</v>
       </c>
@@ -34472,12 +34472,12 @@
       <c r="I186" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J186" s="420"/>
-      <c r="K186" s="422"/>
+      <c r="J186" s="417"/>
+      <c r="K186" s="419"/>
       <c r="L186" s="213"/>
     </row>
     <row r="187" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="422"/>
+      <c r="A187" s="419"/>
       <c r="B187" s="273">
         <v>1</v>
       </c>
@@ -34884,38 +34884,38 @@
       <c r="L197" s="140"/>
     </row>
     <row r="198" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="421" t="s">
+      <c r="A198" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B198" s="424" t="s">
+      <c r="B198" s="421" t="s">
         <v>704</v>
       </c>
-      <c r="C198" s="424" t="s">
+      <c r="C198" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D198" s="425" t="s">
+      <c r="D198" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E198" s="426" t="s">
+      <c r="E198" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F198" s="426"/>
-      <c r="G198" s="426"/>
-      <c r="H198" s="426"/>
-      <c r="I198" s="426"/>
-      <c r="J198" s="419" t="s">
+      <c r="F198" s="423"/>
+      <c r="G198" s="423"/>
+      <c r="H198" s="423"/>
+      <c r="I198" s="423"/>
+      <c r="J198" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K198" s="421" t="s">
+      <c r="K198" s="418" t="s">
         <v>598</v>
       </c>
       <c r="L198" s="213"/>
     </row>
     <row r="199" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="423"/>
-      <c r="B199" s="424"/>
-      <c r="C199" s="424"/>
-      <c r="D199" s="425"/>
+      <c r="A199" s="420"/>
+      <c r="B199" s="421"/>
+      <c r="C199" s="421"/>
+      <c r="D199" s="422"/>
       <c r="E199" s="272" t="s">
         <v>21</v>
       </c>
@@ -34931,12 +34931,12 @@
       <c r="I199" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J199" s="420"/>
-      <c r="K199" s="422"/>
+      <c r="J199" s="417"/>
+      <c r="K199" s="419"/>
       <c r="L199" s="213"/>
     </row>
     <row r="200" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="422"/>
+      <c r="A200" s="419"/>
       <c r="B200" s="273">
         <v>1</v>
       </c>
@@ -35399,38 +35399,38 @@
       <c r="L212" s="140"/>
     </row>
     <row r="213" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="421" t="s">
+      <c r="A213" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B213" s="424" t="s">
+      <c r="B213" s="421" t="s">
         <v>704</v>
       </c>
-      <c r="C213" s="424" t="s">
+      <c r="C213" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D213" s="425" t="s">
+      <c r="D213" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E213" s="426" t="s">
+      <c r="E213" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F213" s="426"/>
-      <c r="G213" s="426"/>
-      <c r="H213" s="426"/>
-      <c r="I213" s="426"/>
-      <c r="J213" s="419" t="s">
+      <c r="F213" s="423"/>
+      <c r="G213" s="423"/>
+      <c r="H213" s="423"/>
+      <c r="I213" s="423"/>
+      <c r="J213" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K213" s="421" t="s">
+      <c r="K213" s="418" t="s">
         <v>598</v>
       </c>
       <c r="L213" s="213"/>
     </row>
     <row r="214" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="423"/>
-      <c r="B214" s="424"/>
-      <c r="C214" s="424"/>
-      <c r="D214" s="425"/>
+      <c r="A214" s="420"/>
+      <c r="B214" s="421"/>
+      <c r="C214" s="421"/>
+      <c r="D214" s="422"/>
       <c r="E214" s="272" t="s">
         <v>21</v>
       </c>
@@ -35446,12 +35446,12 @@
       <c r="I214" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J214" s="420"/>
-      <c r="K214" s="422"/>
+      <c r="J214" s="417"/>
+      <c r="K214" s="419"/>
       <c r="L214" s="213"/>
     </row>
     <row r="215" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="422"/>
+      <c r="A215" s="419"/>
       <c r="B215" s="273">
         <v>1</v>
       </c>
@@ -35936,38 +35936,38 @@
       <c r="L227" s="151"/>
     </row>
     <row r="228" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="421" t="s">
+      <c r="A228" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B228" s="424" t="s">
+      <c r="B228" s="421" t="s">
         <v>704</v>
       </c>
-      <c r="C228" s="424" t="s">
+      <c r="C228" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D228" s="425" t="s">
+      <c r="D228" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E228" s="426" t="s">
+      <c r="E228" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F228" s="426"/>
-      <c r="G228" s="426"/>
-      <c r="H228" s="426"/>
-      <c r="I228" s="426"/>
-      <c r="J228" s="419" t="s">
+      <c r="F228" s="423"/>
+      <c r="G228" s="423"/>
+      <c r="H228" s="423"/>
+      <c r="I228" s="423"/>
+      <c r="J228" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K228" s="421" t="s">
+      <c r="K228" s="418" t="s">
         <v>598</v>
       </c>
       <c r="L228" s="213"/>
     </row>
     <row r="229" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="423"/>
-      <c r="B229" s="424"/>
-      <c r="C229" s="424"/>
-      <c r="D229" s="425"/>
+      <c r="A229" s="420"/>
+      <c r="B229" s="421"/>
+      <c r="C229" s="421"/>
+      <c r="D229" s="422"/>
       <c r="E229" s="272" t="s">
         <v>21</v>
       </c>
@@ -35983,12 +35983,12 @@
       <c r="I229" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J229" s="420"/>
-      <c r="K229" s="422"/>
+      <c r="J229" s="417"/>
+      <c r="K229" s="419"/>
       <c r="L229" s="213"/>
     </row>
     <row r="230" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="422"/>
+      <c r="A230" s="419"/>
       <c r="B230" s="273">
         <v>1</v>
       </c>
@@ -36928,38 +36928,38 @@
       <c r="L250" s="151"/>
     </row>
     <row r="251" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="421" t="s">
+      <c r="A251" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B251" s="424" t="s">
+      <c r="B251" s="421" t="s">
         <v>704</v>
       </c>
-      <c r="C251" s="424" t="s">
+      <c r="C251" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D251" s="425" t="s">
+      <c r="D251" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E251" s="426" t="s">
+      <c r="E251" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F251" s="426"/>
-      <c r="G251" s="426"/>
-      <c r="H251" s="426"/>
-      <c r="I251" s="426"/>
-      <c r="J251" s="419" t="s">
+      <c r="F251" s="423"/>
+      <c r="G251" s="423"/>
+      <c r="H251" s="423"/>
+      <c r="I251" s="423"/>
+      <c r="J251" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K251" s="421" t="s">
+      <c r="K251" s="418" t="s">
         <v>598</v>
       </c>
       <c r="L251" s="213"/>
     </row>
     <row r="252" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="423"/>
-      <c r="B252" s="424"/>
-      <c r="C252" s="424"/>
-      <c r="D252" s="425"/>
+      <c r="A252" s="420"/>
+      <c r="B252" s="421"/>
+      <c r="C252" s="421"/>
+      <c r="D252" s="422"/>
       <c r="E252" s="272" t="s">
         <v>21</v>
       </c>
@@ -36975,12 +36975,12 @@
       <c r="I252" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J252" s="420"/>
-      <c r="K252" s="422"/>
+      <c r="J252" s="417"/>
+      <c r="K252" s="419"/>
       <c r="L252" s="213"/>
     </row>
     <row r="253" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="422"/>
+      <c r="A253" s="419"/>
       <c r="B253" s="273">
         <v>1</v>
       </c>
@@ -39072,70 +39072,68 @@
     </row>
   </sheetData>
   <mergeCells count="150">
-    <mergeCell ref="J185:J186"/>
-    <mergeCell ref="K185:K186"/>
-    <mergeCell ref="E213:I213"/>
-    <mergeCell ref="E198:I198"/>
-    <mergeCell ref="A228:A230"/>
-    <mergeCell ref="B228:B229"/>
-    <mergeCell ref="C228:C229"/>
-    <mergeCell ref="A185:A187"/>
-    <mergeCell ref="B185:B186"/>
-    <mergeCell ref="C185:C186"/>
-    <mergeCell ref="D185:D186"/>
-    <mergeCell ref="E185:I185"/>
-    <mergeCell ref="A251:A253"/>
-    <mergeCell ref="B251:B252"/>
-    <mergeCell ref="C251:C252"/>
-    <mergeCell ref="D251:D252"/>
-    <mergeCell ref="E251:I251"/>
-    <mergeCell ref="J251:J252"/>
-    <mergeCell ref="K251:K252"/>
-    <mergeCell ref="A198:A200"/>
-    <mergeCell ref="B198:B199"/>
-    <mergeCell ref="C198:C199"/>
-    <mergeCell ref="D198:D199"/>
-    <mergeCell ref="J198:J199"/>
-    <mergeCell ref="K198:K199"/>
-    <mergeCell ref="A213:A215"/>
-    <mergeCell ref="B213:B214"/>
-    <mergeCell ref="C213:C214"/>
-    <mergeCell ref="D228:D229"/>
-    <mergeCell ref="E228:I228"/>
-    <mergeCell ref="J228:J229"/>
-    <mergeCell ref="K228:K229"/>
-    <mergeCell ref="D213:D214"/>
-    <mergeCell ref="J213:J214"/>
-    <mergeCell ref="K213:K214"/>
-    <mergeCell ref="A154:A156"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="J154:J155"/>
-    <mergeCell ref="K154:K155"/>
-    <mergeCell ref="E154:I154"/>
-    <mergeCell ref="E143:I143"/>
-    <mergeCell ref="A164:A166"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="D164:D165"/>
-    <mergeCell ref="J164:J165"/>
-    <mergeCell ref="K164:K165"/>
-    <mergeCell ref="E164:I164"/>
-    <mergeCell ref="A133:A135"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="J133:J134"/>
-    <mergeCell ref="K133:K134"/>
-    <mergeCell ref="E125:I125"/>
-    <mergeCell ref="E133:I133"/>
-    <mergeCell ref="A143:A145"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="J143:J144"/>
-    <mergeCell ref="K143:K144"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="J117:J118"/>
+    <mergeCell ref="K117:K118"/>
+    <mergeCell ref="E117:I117"/>
+    <mergeCell ref="K94:K95"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="J108:J109"/>
+    <mergeCell ref="K108:K109"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="J94:J95"/>
+    <mergeCell ref="E108:I108"/>
+    <mergeCell ref="E94:I94"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="E69:I69"/>
+    <mergeCell ref="E81:I81"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E58:I58"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E15:I15"/>
     <mergeCell ref="K25:K26"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="B35:B36"/>
@@ -39160,68 +39158,70 @@
     <mergeCell ref="A58:A60"/>
     <mergeCell ref="B58:B59"/>
     <mergeCell ref="C58:C59"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="K58:K59"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E58:I58"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="E69:I69"/>
-    <mergeCell ref="E81:I81"/>
-    <mergeCell ref="A117:A119"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="J117:J118"/>
-    <mergeCell ref="K117:K118"/>
-    <mergeCell ref="E117:I117"/>
-    <mergeCell ref="K94:K95"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="J108:J109"/>
-    <mergeCell ref="K108:K109"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="J94:J95"/>
-    <mergeCell ref="E108:I108"/>
-    <mergeCell ref="E94:I94"/>
+    <mergeCell ref="A133:A135"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="J133:J134"/>
+    <mergeCell ref="K133:K134"/>
+    <mergeCell ref="E125:I125"/>
+    <mergeCell ref="E133:I133"/>
+    <mergeCell ref="A143:A145"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="J143:J144"/>
+    <mergeCell ref="K143:K144"/>
+    <mergeCell ref="A154:A156"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="J154:J155"/>
+    <mergeCell ref="K154:K155"/>
+    <mergeCell ref="E154:I154"/>
+    <mergeCell ref="E143:I143"/>
+    <mergeCell ref="A164:A166"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="D164:D165"/>
+    <mergeCell ref="J164:J165"/>
+    <mergeCell ref="K164:K165"/>
+    <mergeCell ref="E164:I164"/>
+    <mergeCell ref="A251:A253"/>
+    <mergeCell ref="B251:B252"/>
+    <mergeCell ref="C251:C252"/>
+    <mergeCell ref="D251:D252"/>
+    <mergeCell ref="E251:I251"/>
+    <mergeCell ref="J251:J252"/>
+    <mergeCell ref="K251:K252"/>
+    <mergeCell ref="A198:A200"/>
+    <mergeCell ref="B198:B199"/>
+    <mergeCell ref="C198:C199"/>
+    <mergeCell ref="D198:D199"/>
+    <mergeCell ref="J198:J199"/>
+    <mergeCell ref="K198:K199"/>
+    <mergeCell ref="A213:A215"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="C213:C214"/>
+    <mergeCell ref="D228:D229"/>
+    <mergeCell ref="E228:I228"/>
+    <mergeCell ref="J228:J229"/>
+    <mergeCell ref="K228:K229"/>
+    <mergeCell ref="D213:D214"/>
+    <mergeCell ref="J213:J214"/>
+    <mergeCell ref="K213:K214"/>
+    <mergeCell ref="J185:J186"/>
+    <mergeCell ref="K185:K186"/>
+    <mergeCell ref="E213:I213"/>
+    <mergeCell ref="E198:I198"/>
+    <mergeCell ref="A228:A230"/>
+    <mergeCell ref="B228:B229"/>
+    <mergeCell ref="C228:C229"/>
+    <mergeCell ref="A185:A187"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="C185:C186"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="E185:I185"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.196850393700787" bottom="0.196850393700787" header="0.196850393700787" footer="0.196850393700787"/>
   <pageSetup scale="91" orientation="landscape" r:id="rId1"/>
@@ -39233,8 +39233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R523"/>
   <sheetViews>
-    <sheetView topLeftCell="A379" workbookViewId="0">
-      <selection activeCell="H388" sqref="H388"/>
+    <sheetView topLeftCell="A385" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G393" sqref="G393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39273,38 +39273,38 @@
       <c r="K2" s="298"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="421" t="s">
+      <c r="A3" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B3" s="424" t="s">
+      <c r="B3" s="421" t="s">
         <v>704</v>
       </c>
-      <c r="C3" s="424" t="s">
+      <c r="C3" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="425" t="s">
+      <c r="D3" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E3" s="426" t="s">
+      <c r="E3" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="426"/>
-      <c r="G3" s="426"/>
-      <c r="H3" s="426"/>
-      <c r="I3" s="426"/>
-      <c r="J3" s="419" t="s">
+      <c r="F3" s="423"/>
+      <c r="G3" s="423"/>
+      <c r="H3" s="423"/>
+      <c r="I3" s="423"/>
+      <c r="J3" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="421" t="s">
+      <c r="K3" s="418" t="s">
         <v>598</v>
       </c>
       <c r="L3" s="213"/>
     </row>
     <row r="4" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="423"/>
-      <c r="B4" s="424"/>
-      <c r="C4" s="424"/>
-      <c r="D4" s="425"/>
+      <c r="A4" s="420"/>
+      <c r="B4" s="421"/>
+      <c r="C4" s="421"/>
+      <c r="D4" s="422"/>
       <c r="E4" s="272" t="s">
         <v>21</v>
       </c>
@@ -39320,12 +39320,12 @@
       <c r="I4" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J4" s="420"/>
-      <c r="K4" s="422"/>
+      <c r="J4" s="417"/>
+      <c r="K4" s="419"/>
       <c r="L4" s="213"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="422"/>
+      <c r="A5" s="419"/>
       <c r="B5" s="273">
         <v>1</v>
       </c>
@@ -40108,38 +40108,38 @@
       <c r="L27" s="140"/>
     </row>
     <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="421" t="s">
+      <c r="A28" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B28" s="424" t="s">
+      <c r="B28" s="421" t="s">
         <v>704</v>
       </c>
-      <c r="C28" s="424" t="s">
+      <c r="C28" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="425" t="s">
+      <c r="D28" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E28" s="426" t="s">
+      <c r="E28" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="426"/>
-      <c r="G28" s="426"/>
-      <c r="H28" s="426"/>
-      <c r="I28" s="426"/>
-      <c r="J28" s="419" t="s">
+      <c r="F28" s="423"/>
+      <c r="G28" s="423"/>
+      <c r="H28" s="423"/>
+      <c r="I28" s="423"/>
+      <c r="J28" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="421" t="s">
+      <c r="K28" s="418" t="s">
         <v>598</v>
       </c>
       <c r="L28" s="213"/>
     </row>
     <row r="29" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="423"/>
-      <c r="B29" s="424"/>
-      <c r="C29" s="424"/>
-      <c r="D29" s="425"/>
+      <c r="A29" s="420"/>
+      <c r="B29" s="421"/>
+      <c r="C29" s="421"/>
+      <c r="D29" s="422"/>
       <c r="E29" s="272" t="s">
         <v>21</v>
       </c>
@@ -40155,12 +40155,12 @@
       <c r="I29" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J29" s="420"/>
-      <c r="K29" s="422"/>
+      <c r="J29" s="417"/>
+      <c r="K29" s="419"/>
       <c r="L29" s="213"/>
     </row>
     <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="422"/>
+      <c r="A30" s="419"/>
       <c r="B30" s="273">
         <v>1</v>
       </c>
@@ -40700,38 +40700,38 @@
       <c r="L45" s="140"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="421" t="s">
+      <c r="A46" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B46" s="424" t="s">
+      <c r="B46" s="421" t="s">
         <v>704</v>
       </c>
-      <c r="C46" s="424" t="s">
+      <c r="C46" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D46" s="425" t="s">
+      <c r="D46" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E46" s="426" t="s">
+      <c r="E46" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F46" s="426"/>
-      <c r="G46" s="426"/>
-      <c r="H46" s="426"/>
-      <c r="I46" s="426"/>
-      <c r="J46" s="419" t="s">
+      <c r="F46" s="423"/>
+      <c r="G46" s="423"/>
+      <c r="H46" s="423"/>
+      <c r="I46" s="423"/>
+      <c r="J46" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K46" s="421" t="s">
+      <c r="K46" s="418" t="s">
         <v>598</v>
       </c>
       <c r="L46" s="213"/>
     </row>
     <row r="47" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="423"/>
-      <c r="B47" s="424"/>
-      <c r="C47" s="424"/>
-      <c r="D47" s="425"/>
+      <c r="A47" s="420"/>
+      <c r="B47" s="421"/>
+      <c r="C47" s="421"/>
+      <c r="D47" s="422"/>
       <c r="E47" s="272" t="s">
         <v>21</v>
       </c>
@@ -40747,12 +40747,12 @@
       <c r="I47" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J47" s="420"/>
-      <c r="K47" s="422"/>
+      <c r="J47" s="417"/>
+      <c r="K47" s="419"/>
       <c r="L47" s="213"/>
     </row>
     <row r="48" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="422"/>
+      <c r="A48" s="419"/>
       <c r="B48" s="273">
         <v>1</v>
       </c>
@@ -41431,38 +41431,38 @@
       <c r="L67" s="140"/>
     </row>
     <row r="68" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="421" t="s">
+      <c r="A68" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B68" s="424" t="s">
+      <c r="B68" s="421" t="s">
         <v>704</v>
       </c>
-      <c r="C68" s="424" t="s">
+      <c r="C68" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D68" s="425" t="s">
+      <c r="D68" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E68" s="426" t="s">
+      <c r="E68" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F68" s="426"/>
-      <c r="G68" s="426"/>
-      <c r="H68" s="426"/>
-      <c r="I68" s="426"/>
-      <c r="J68" s="419" t="s">
+      <c r="F68" s="423"/>
+      <c r="G68" s="423"/>
+      <c r="H68" s="423"/>
+      <c r="I68" s="423"/>
+      <c r="J68" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K68" s="421" t="s">
+      <c r="K68" s="418" t="s">
         <v>598</v>
       </c>
       <c r="L68" s="213"/>
     </row>
     <row r="69" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="423"/>
-      <c r="B69" s="424"/>
-      <c r="C69" s="424"/>
-      <c r="D69" s="425"/>
+      <c r="A69" s="420"/>
+      <c r="B69" s="421"/>
+      <c r="C69" s="421"/>
+      <c r="D69" s="422"/>
       <c r="E69" s="272" t="s">
         <v>21</v>
       </c>
@@ -41478,12 +41478,12 @@
       <c r="I69" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J69" s="420"/>
-      <c r="K69" s="422"/>
+      <c r="J69" s="417"/>
+      <c r="K69" s="419"/>
       <c r="L69" s="213"/>
     </row>
     <row r="70" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="422"/>
+      <c r="A70" s="419"/>
       <c r="B70" s="273">
         <v>1</v>
       </c>
@@ -42179,38 +42179,38 @@
       <c r="L89" s="140"/>
     </row>
     <row r="90" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="421" t="s">
+      <c r="A90" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B90" s="424" t="s">
+      <c r="B90" s="421" t="s">
         <v>704</v>
       </c>
-      <c r="C90" s="424" t="s">
+      <c r="C90" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D90" s="425" t="s">
+      <c r="D90" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E90" s="426" t="s">
+      <c r="E90" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F90" s="426"/>
-      <c r="G90" s="426"/>
-      <c r="H90" s="426"/>
-      <c r="I90" s="426"/>
-      <c r="J90" s="419" t="s">
+      <c r="F90" s="423"/>
+      <c r="G90" s="423"/>
+      <c r="H90" s="423"/>
+      <c r="I90" s="423"/>
+      <c r="J90" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K90" s="421" t="s">
+      <c r="K90" s="418" t="s">
         <v>598</v>
       </c>
       <c r="L90" s="213"/>
     </row>
     <row r="91" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="423"/>
-      <c r="B91" s="424"/>
-      <c r="C91" s="424"/>
-      <c r="D91" s="425"/>
+      <c r="A91" s="420"/>
+      <c r="B91" s="421"/>
+      <c r="C91" s="421"/>
+      <c r="D91" s="422"/>
       <c r="E91" s="272" t="s">
         <v>21</v>
       </c>
@@ -42226,12 +42226,12 @@
       <c r="I91" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J91" s="420"/>
-      <c r="K91" s="422"/>
+      <c r="J91" s="417"/>
+      <c r="K91" s="419"/>
       <c r="L91" s="213"/>
     </row>
     <row r="92" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="422"/>
+      <c r="A92" s="419"/>
       <c r="B92" s="273">
         <v>1</v>
       </c>
@@ -43321,38 +43321,38 @@
       <c r="L122" s="140"/>
     </row>
     <row r="123" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="421" t="s">
+      <c r="A123" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B123" s="424" t="s">
+      <c r="B123" s="421" t="s">
         <v>704</v>
       </c>
-      <c r="C123" s="424" t="s">
+      <c r="C123" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D123" s="425" t="s">
+      <c r="D123" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E123" s="426" t="s">
+      <c r="E123" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F123" s="426"/>
-      <c r="G123" s="426"/>
-      <c r="H123" s="426"/>
-      <c r="I123" s="426"/>
-      <c r="J123" s="419" t="s">
+      <c r="F123" s="423"/>
+      <c r="G123" s="423"/>
+      <c r="H123" s="423"/>
+      <c r="I123" s="423"/>
+      <c r="J123" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K123" s="421" t="s">
+      <c r="K123" s="418" t="s">
         <v>598</v>
       </c>
       <c r="L123" s="213"/>
     </row>
     <row r="124" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="423"/>
-      <c r="B124" s="424"/>
-      <c r="C124" s="424"/>
-      <c r="D124" s="425"/>
+      <c r="A124" s="420"/>
+      <c r="B124" s="421"/>
+      <c r="C124" s="421"/>
+      <c r="D124" s="422"/>
       <c r="E124" s="272" t="s">
         <v>21</v>
       </c>
@@ -43368,12 +43368,12 @@
       <c r="I124" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J124" s="420"/>
-      <c r="K124" s="422"/>
+      <c r="J124" s="417"/>
+      <c r="K124" s="419"/>
       <c r="L124" s="213"/>
     </row>
     <row r="125" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="422"/>
+      <c r="A125" s="419"/>
       <c r="B125" s="273">
         <v>1</v>
       </c>
@@ -45497,38 +45497,38 @@
       <c r="L183" s="140"/>
     </row>
     <row r="184" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="421" t="s">
+      <c r="A184" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B184" s="424" t="s">
+      <c r="B184" s="421" t="s">
         <v>704</v>
       </c>
-      <c r="C184" s="424" t="s">
+      <c r="C184" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D184" s="425" t="s">
+      <c r="D184" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E184" s="426" t="s">
+      <c r="E184" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F184" s="426"/>
-      <c r="G184" s="426"/>
-      <c r="H184" s="426"/>
-      <c r="I184" s="426"/>
-      <c r="J184" s="419" t="s">
+      <c r="F184" s="423"/>
+      <c r="G184" s="423"/>
+      <c r="H184" s="423"/>
+      <c r="I184" s="423"/>
+      <c r="J184" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K184" s="421" t="s">
+      <c r="K184" s="418" t="s">
         <v>598</v>
       </c>
       <c r="L184" s="213"/>
     </row>
     <row r="185" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="423"/>
-      <c r="B185" s="424"/>
-      <c r="C185" s="424"/>
-      <c r="D185" s="425"/>
+      <c r="A185" s="420"/>
+      <c r="B185" s="421"/>
+      <c r="C185" s="421"/>
+      <c r="D185" s="422"/>
       <c r="E185" s="272" t="s">
         <v>21</v>
       </c>
@@ -45544,12 +45544,12 @@
       <c r="I185" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J185" s="420"/>
-      <c r="K185" s="422"/>
+      <c r="J185" s="417"/>
+      <c r="K185" s="419"/>
       <c r="L185" s="213"/>
     </row>
     <row r="186" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="422"/>
+      <c r="A186" s="419"/>
       <c r="B186" s="273">
         <v>1</v>
       </c>
@@ -46957,38 +46957,38 @@
       <c r="L225" s="140"/>
     </row>
     <row r="226" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="421" t="s">
+      <c r="A226" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B226" s="424" t="s">
+      <c r="B226" s="421" t="s">
         <v>704</v>
       </c>
-      <c r="C226" s="424" t="s">
+      <c r="C226" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D226" s="425" t="s">
+      <c r="D226" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E226" s="426" t="s">
+      <c r="E226" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F226" s="426"/>
-      <c r="G226" s="426"/>
-      <c r="H226" s="426"/>
-      <c r="I226" s="426"/>
-      <c r="J226" s="419" t="s">
+      <c r="F226" s="423"/>
+      <c r="G226" s="423"/>
+      <c r="H226" s="423"/>
+      <c r="I226" s="423"/>
+      <c r="J226" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K226" s="421" t="s">
+      <c r="K226" s="418" t="s">
         <v>598</v>
       </c>
       <c r="L226" s="213"/>
     </row>
     <row r="227" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="423"/>
-      <c r="B227" s="424"/>
-      <c r="C227" s="424"/>
-      <c r="D227" s="425"/>
+      <c r="A227" s="420"/>
+      <c r="B227" s="421"/>
+      <c r="C227" s="421"/>
+      <c r="D227" s="422"/>
       <c r="E227" s="272" t="s">
         <v>21</v>
       </c>
@@ -47004,12 +47004,12 @@
       <c r="I227" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J227" s="420"/>
-      <c r="K227" s="422"/>
+      <c r="J227" s="417"/>
+      <c r="K227" s="419"/>
       <c r="L227" s="213"/>
     </row>
     <row r="228" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="422"/>
+      <c r="A228" s="419"/>
       <c r="B228" s="273">
         <v>1</v>
       </c>
@@ -47933,38 +47933,38 @@
       <c r="L253" s="140"/>
     </row>
     <row r="254" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="421" t="s">
+      <c r="A254" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B254" s="424" t="s">
+      <c r="B254" s="421" t="s">
         <v>704</v>
       </c>
-      <c r="C254" s="424" t="s">
+      <c r="C254" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D254" s="425" t="s">
+      <c r="D254" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E254" s="426" t="s">
+      <c r="E254" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F254" s="426"/>
-      <c r="G254" s="426"/>
-      <c r="H254" s="426"/>
-      <c r="I254" s="426"/>
-      <c r="J254" s="419" t="s">
+      <c r="F254" s="423"/>
+      <c r="G254" s="423"/>
+      <c r="H254" s="423"/>
+      <c r="I254" s="423"/>
+      <c r="J254" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K254" s="421" t="s">
+      <c r="K254" s="418" t="s">
         <v>598</v>
       </c>
       <c r="L254" s="213"/>
     </row>
     <row r="255" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="423"/>
-      <c r="B255" s="424"/>
-      <c r="C255" s="424"/>
-      <c r="D255" s="425"/>
+      <c r="A255" s="420"/>
+      <c r="B255" s="421"/>
+      <c r="C255" s="421"/>
+      <c r="D255" s="422"/>
       <c r="E255" s="272" t="s">
         <v>21</v>
       </c>
@@ -47980,12 +47980,12 @@
       <c r="I255" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J255" s="420"/>
-      <c r="K255" s="422"/>
+      <c r="J255" s="417"/>
+      <c r="K255" s="419"/>
       <c r="L255" s="213"/>
     </row>
     <row r="256" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="422"/>
+      <c r="A256" s="419"/>
       <c r="B256" s="273">
         <v>1</v>
       </c>
@@ -50797,38 +50797,38 @@
       <c r="L329" s="140"/>
     </row>
     <row r="330" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A330" s="421" t="s">
+      <c r="A330" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B330" s="424" t="s">
+      <c r="B330" s="421" t="s">
         <v>704</v>
       </c>
-      <c r="C330" s="424" t="s">
+      <c r="C330" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D330" s="425" t="s">
+      <c r="D330" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E330" s="426" t="s">
+      <c r="E330" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F330" s="426"/>
-      <c r="G330" s="426"/>
-      <c r="H330" s="426"/>
-      <c r="I330" s="426"/>
-      <c r="J330" s="419" t="s">
+      <c r="F330" s="423"/>
+      <c r="G330" s="423"/>
+      <c r="H330" s="423"/>
+      <c r="I330" s="423"/>
+      <c r="J330" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K330" s="421" t="s">
+      <c r="K330" s="418" t="s">
         <v>598</v>
       </c>
       <c r="L330" s="213"/>
     </row>
     <row r="331" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A331" s="423"/>
-      <c r="B331" s="424"/>
-      <c r="C331" s="424"/>
-      <c r="D331" s="425"/>
+      <c r="A331" s="420"/>
+      <c r="B331" s="421"/>
+      <c r="C331" s="421"/>
+      <c r="D331" s="422"/>
       <c r="E331" s="272" t="s">
         <v>21</v>
       </c>
@@ -50844,12 +50844,12 @@
       <c r="I331" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J331" s="420"/>
-      <c r="K331" s="422"/>
+      <c r="J331" s="417"/>
+      <c r="K331" s="419"/>
       <c r="L331" s="213"/>
     </row>
     <row r="332" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A332" s="422"/>
+      <c r="A332" s="419"/>
       <c r="B332" s="273">
         <v>1</v>
       </c>
@@ -52197,38 +52197,38 @@
       <c r="L370" s="140"/>
     </row>
     <row r="371" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A371" s="421" t="s">
+      <c r="A371" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B371" s="424" t="s">
+      <c r="B371" s="421" t="s">
         <v>704</v>
       </c>
-      <c r="C371" s="424" t="s">
+      <c r="C371" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D371" s="425" t="s">
+      <c r="D371" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E371" s="426" t="s">
+      <c r="E371" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F371" s="426"/>
-      <c r="G371" s="426"/>
-      <c r="H371" s="426"/>
-      <c r="I371" s="426"/>
-      <c r="J371" s="419" t="s">
+      <c r="F371" s="423"/>
+      <c r="G371" s="423"/>
+      <c r="H371" s="423"/>
+      <c r="I371" s="423"/>
+      <c r="J371" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K371" s="421" t="s">
+      <c r="K371" s="418" t="s">
         <v>598</v>
       </c>
       <c r="L371" s="213"/>
     </row>
     <row r="372" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A372" s="423"/>
-      <c r="B372" s="424"/>
-      <c r="C372" s="424"/>
-      <c r="D372" s="425"/>
+      <c r="A372" s="420"/>
+      <c r="B372" s="421"/>
+      <c r="C372" s="421"/>
+      <c r="D372" s="422"/>
       <c r="E372" s="272" t="s">
         <v>21</v>
       </c>
@@ -52244,12 +52244,12 @@
       <c r="I372" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J372" s="420"/>
-      <c r="K372" s="422"/>
+      <c r="J372" s="417"/>
+      <c r="K372" s="419"/>
       <c r="L372" s="213"/>
     </row>
     <row r="373" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A373" s="422"/>
+      <c r="A373" s="419"/>
       <c r="B373" s="273">
         <v>1</v>
       </c>
@@ -52818,11 +52818,11 @@
         <v>1321</v>
       </c>
       <c r="J387" s="251">
-        <f t="shared" si="63"/>
+        <f>I387*C387</f>
         <v>11228500</v>
       </c>
       <c r="K387" s="290">
-        <f t="shared" si="64"/>
+        <f>+D387*I387</f>
         <v>2338170</v>
       </c>
       <c r="L387" s="215"/>
@@ -53377,12 +53377,12 @@
         <v>44897</v>
       </c>
       <c r="J402" s="97">
-        <f t="shared" si="69"/>
+        <f>SUM(J375:J401)</f>
         <v>591781000</v>
       </c>
       <c r="K402" s="297">
-        <f>SUM(K375:K391)</f>
-        <v>84681478.029999986</v>
+        <f>SUM(K375:K400)</f>
+        <v>101941030.78999998</v>
       </c>
       <c r="L402" s="151"/>
     </row>
@@ -53401,38 +53401,38 @@
       <c r="L403" s="140"/>
     </row>
     <row r="404" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A404" s="421" t="s">
+      <c r="A404" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B404" s="424" t="s">
+      <c r="B404" s="421" t="s">
         <v>704</v>
       </c>
-      <c r="C404" s="424" t="s">
+      <c r="C404" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D404" s="425" t="s">
+      <c r="D404" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E404" s="426" t="s">
+      <c r="E404" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F404" s="426"/>
-      <c r="G404" s="426"/>
-      <c r="H404" s="426"/>
-      <c r="I404" s="426"/>
-      <c r="J404" s="419" t="s">
+      <c r="F404" s="423"/>
+      <c r="G404" s="423"/>
+      <c r="H404" s="423"/>
+      <c r="I404" s="423"/>
+      <c r="J404" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K404" s="421" t="s">
+      <c r="K404" s="418" t="s">
         <v>598</v>
       </c>
       <c r="L404" s="213"/>
     </row>
     <row r="405" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A405" s="423"/>
-      <c r="B405" s="424"/>
-      <c r="C405" s="424"/>
-      <c r="D405" s="425"/>
+      <c r="A405" s="420"/>
+      <c r="B405" s="421"/>
+      <c r="C405" s="421"/>
+      <c r="D405" s="422"/>
       <c r="E405" s="272" t="s">
         <v>21</v>
       </c>
@@ -53448,12 +53448,12 @@
       <c r="I405" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J405" s="420"/>
-      <c r="K405" s="422"/>
+      <c r="J405" s="417"/>
+      <c r="K405" s="419"/>
       <c r="L405" s="213"/>
     </row>
     <row r="406" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A406" s="422"/>
+      <c r="A406" s="419"/>
       <c r="B406" s="273">
         <v>1</v>
       </c>
@@ -54215,38 +54215,38 @@
       <c r="L426" s="140"/>
     </row>
     <row r="427" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A427" s="421" t="s">
+      <c r="A427" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B427" s="424" t="s">
+      <c r="B427" s="421" t="s">
         <v>704</v>
       </c>
-      <c r="C427" s="424" t="s">
+      <c r="C427" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D427" s="425" t="s">
+      <c r="D427" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E427" s="426" t="s">
+      <c r="E427" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F427" s="426"/>
-      <c r="G427" s="426"/>
-      <c r="H427" s="426"/>
-      <c r="I427" s="426"/>
-      <c r="J427" s="419" t="s">
+      <c r="F427" s="423"/>
+      <c r="G427" s="423"/>
+      <c r="H427" s="423"/>
+      <c r="I427" s="423"/>
+      <c r="J427" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K427" s="421" t="s">
+      <c r="K427" s="418" t="s">
         <v>598</v>
       </c>
       <c r="L427" s="213"/>
     </row>
     <row r="428" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A428" s="423"/>
-      <c r="B428" s="424"/>
-      <c r="C428" s="424"/>
-      <c r="D428" s="425"/>
+      <c r="A428" s="420"/>
+      <c r="B428" s="421"/>
+      <c r="C428" s="421"/>
+      <c r="D428" s="422"/>
       <c r="E428" s="272" t="s">
         <v>21</v>
       </c>
@@ -54262,12 +54262,12 @@
       <c r="I428" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J428" s="420"/>
-      <c r="K428" s="422"/>
+      <c r="J428" s="417"/>
+      <c r="K428" s="419"/>
       <c r="L428" s="213"/>
     </row>
     <row r="429" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A429" s="422"/>
+      <c r="A429" s="419"/>
       <c r="B429" s="273">
         <v>1</v>
       </c>
@@ -55100,38 +55100,38 @@
       <c r="K450" s="298"/>
     </row>
     <row r="451" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A451" s="421" t="s">
+      <c r="A451" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B451" s="424" t="s">
+      <c r="B451" s="421" t="s">
         <v>704</v>
       </c>
-      <c r="C451" s="424" t="s">
+      <c r="C451" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D451" s="425" t="s">
+      <c r="D451" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E451" s="426" t="s">
+      <c r="E451" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F451" s="426"/>
-      <c r="G451" s="426"/>
-      <c r="H451" s="426"/>
-      <c r="I451" s="426"/>
-      <c r="J451" s="419" t="s">
+      <c r="F451" s="423"/>
+      <c r="G451" s="423"/>
+      <c r="H451" s="423"/>
+      <c r="I451" s="423"/>
+      <c r="J451" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K451" s="421" t="s">
+      <c r="K451" s="418" t="s">
         <v>598</v>
       </c>
       <c r="L451" s="213"/>
     </row>
     <row r="452" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A452" s="423"/>
-      <c r="B452" s="424"/>
-      <c r="C452" s="424"/>
-      <c r="D452" s="425"/>
+      <c r="A452" s="420"/>
+      <c r="B452" s="421"/>
+      <c r="C452" s="421"/>
+      <c r="D452" s="422"/>
       <c r="E452" s="272" t="s">
         <v>21</v>
       </c>
@@ -55147,12 +55147,12 @@
       <c r="I452" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J452" s="420"/>
-      <c r="K452" s="422"/>
+      <c r="J452" s="417"/>
+      <c r="K452" s="419"/>
       <c r="L452" s="213"/>
     </row>
     <row r="453" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A453" s="422"/>
+      <c r="A453" s="419"/>
       <c r="B453" s="273">
         <v>1</v>
       </c>
@@ -56698,38 +56698,38 @@
       <c r="K488" s="298"/>
     </row>
     <row r="489" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A489" s="421" t="s">
+      <c r="A489" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B489" s="424" t="s">
+      <c r="B489" s="421" t="s">
         <v>704</v>
       </c>
-      <c r="C489" s="424" t="s">
+      <c r="C489" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D489" s="425" t="s">
+      <c r="D489" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E489" s="426" t="s">
+      <c r="E489" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F489" s="426"/>
-      <c r="G489" s="426"/>
-      <c r="H489" s="426"/>
-      <c r="I489" s="426"/>
-      <c r="J489" s="419" t="s">
+      <c r="F489" s="423"/>
+      <c r="G489" s="423"/>
+      <c r="H489" s="423"/>
+      <c r="I489" s="423"/>
+      <c r="J489" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K489" s="421" t="s">
+      <c r="K489" s="418" t="s">
         <v>598</v>
       </c>
       <c r="L489" s="213"/>
     </row>
     <row r="490" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A490" s="423"/>
-      <c r="B490" s="424"/>
-      <c r="C490" s="424"/>
-      <c r="D490" s="425"/>
+      <c r="A490" s="420"/>
+      <c r="B490" s="421"/>
+      <c r="C490" s="421"/>
+      <c r="D490" s="422"/>
       <c r="E490" s="272" t="s">
         <v>21</v>
       </c>
@@ -56745,12 +56745,12 @@
       <c r="I490" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J490" s="420"/>
-      <c r="K490" s="422"/>
+      <c r="J490" s="417"/>
+      <c r="K490" s="419"/>
       <c r="L490" s="213"/>
     </row>
     <row r="491" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A491" s="422"/>
+      <c r="A491" s="419"/>
       <c r="B491" s="273">
         <v>1</v>
       </c>
@@ -57794,7 +57794,7 @@
       </c>
       <c r="K516" s="391">
         <f t="shared" si="95"/>
-        <v>441021790.76999998</v>
+        <v>458281343.52999997</v>
       </c>
       <c r="L516" s="217"/>
       <c r="M516" s="40">
@@ -57818,7 +57818,7 @@
       </c>
       <c r="O517" s="145">
         <f>+O516-K516</f>
-        <v>3540</v>
+        <v>-17256012.75999999</v>
       </c>
     </row>
     <row r="518" spans="1:15" x14ac:dyDescent="0.25">
@@ -57848,87 +57848,6 @@
     </row>
   </sheetData>
   <mergeCells count="105">
-    <mergeCell ref="J489:J490"/>
-    <mergeCell ref="K489:K490"/>
-    <mergeCell ref="A489:A491"/>
-    <mergeCell ref="B489:B490"/>
-    <mergeCell ref="C489:C490"/>
-    <mergeCell ref="D489:D490"/>
-    <mergeCell ref="E489:I489"/>
-    <mergeCell ref="K427:K428"/>
-    <mergeCell ref="K404:K405"/>
-    <mergeCell ref="A404:A406"/>
-    <mergeCell ref="B404:B405"/>
-    <mergeCell ref="C404:C405"/>
-    <mergeCell ref="D404:D405"/>
-    <mergeCell ref="J404:J405"/>
-    <mergeCell ref="E404:I404"/>
-    <mergeCell ref="E427:I427"/>
-    <mergeCell ref="A427:A429"/>
-    <mergeCell ref="B427:B428"/>
-    <mergeCell ref="C427:C428"/>
-    <mergeCell ref="D427:D428"/>
-    <mergeCell ref="J427:J428"/>
-    <mergeCell ref="K330:K331"/>
-    <mergeCell ref="A371:A373"/>
-    <mergeCell ref="B371:B372"/>
-    <mergeCell ref="C371:C372"/>
-    <mergeCell ref="D371:D372"/>
-    <mergeCell ref="J371:J372"/>
-    <mergeCell ref="K371:K372"/>
-    <mergeCell ref="A330:A332"/>
-    <mergeCell ref="B330:B331"/>
-    <mergeCell ref="C330:C331"/>
-    <mergeCell ref="D330:D331"/>
-    <mergeCell ref="J330:J331"/>
-    <mergeCell ref="E330:I330"/>
-    <mergeCell ref="E371:I371"/>
-    <mergeCell ref="K226:K227"/>
-    <mergeCell ref="A254:A256"/>
-    <mergeCell ref="B254:B255"/>
-    <mergeCell ref="C254:C255"/>
-    <mergeCell ref="D254:D255"/>
-    <mergeCell ref="J254:J255"/>
-    <mergeCell ref="K254:K255"/>
-    <mergeCell ref="A226:A228"/>
-    <mergeCell ref="B226:B227"/>
-    <mergeCell ref="C226:C227"/>
-    <mergeCell ref="D226:D227"/>
-    <mergeCell ref="J226:J227"/>
-    <mergeCell ref="E226:I226"/>
-    <mergeCell ref="E254:I254"/>
-    <mergeCell ref="K123:K124"/>
-    <mergeCell ref="A184:A186"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="C184:C185"/>
-    <mergeCell ref="D184:D185"/>
-    <mergeCell ref="J184:J185"/>
-    <mergeCell ref="K184:K185"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="J123:J124"/>
-    <mergeCell ref="E123:I123"/>
-    <mergeCell ref="E184:I184"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="K68:K69"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="J90:J91"/>
-    <mergeCell ref="K90:K91"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="E90:I90"/>
-    <mergeCell ref="E68:I68"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B4"/>
@@ -57953,6 +57872,87 @@
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="J90:J91"/>
+    <mergeCell ref="K90:K91"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="E90:I90"/>
+    <mergeCell ref="E68:I68"/>
+    <mergeCell ref="K123:K124"/>
+    <mergeCell ref="A184:A186"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="J184:J185"/>
+    <mergeCell ref="K184:K185"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="J123:J124"/>
+    <mergeCell ref="E123:I123"/>
+    <mergeCell ref="E184:I184"/>
+    <mergeCell ref="K226:K227"/>
+    <mergeCell ref="A254:A256"/>
+    <mergeCell ref="B254:B255"/>
+    <mergeCell ref="C254:C255"/>
+    <mergeCell ref="D254:D255"/>
+    <mergeCell ref="J254:J255"/>
+    <mergeCell ref="K254:K255"/>
+    <mergeCell ref="A226:A228"/>
+    <mergeCell ref="B226:B227"/>
+    <mergeCell ref="C226:C227"/>
+    <mergeCell ref="D226:D227"/>
+    <mergeCell ref="J226:J227"/>
+    <mergeCell ref="E226:I226"/>
+    <mergeCell ref="E254:I254"/>
+    <mergeCell ref="K330:K331"/>
+    <mergeCell ref="A371:A373"/>
+    <mergeCell ref="B371:B372"/>
+    <mergeCell ref="C371:C372"/>
+    <mergeCell ref="D371:D372"/>
+    <mergeCell ref="J371:J372"/>
+    <mergeCell ref="K371:K372"/>
+    <mergeCell ref="A330:A332"/>
+    <mergeCell ref="B330:B331"/>
+    <mergeCell ref="C330:C331"/>
+    <mergeCell ref="D330:D331"/>
+    <mergeCell ref="J330:J331"/>
+    <mergeCell ref="E330:I330"/>
+    <mergeCell ref="E371:I371"/>
+    <mergeCell ref="J489:J490"/>
+    <mergeCell ref="K489:K490"/>
+    <mergeCell ref="A489:A491"/>
+    <mergeCell ref="B489:B490"/>
+    <mergeCell ref="C489:C490"/>
+    <mergeCell ref="D489:D490"/>
+    <mergeCell ref="E489:I489"/>
+    <mergeCell ref="K427:K428"/>
+    <mergeCell ref="K404:K405"/>
+    <mergeCell ref="A404:A406"/>
+    <mergeCell ref="B404:B405"/>
+    <mergeCell ref="C404:C405"/>
+    <mergeCell ref="D404:D405"/>
+    <mergeCell ref="J404:J405"/>
+    <mergeCell ref="E404:I404"/>
+    <mergeCell ref="E427:I427"/>
+    <mergeCell ref="A427:A429"/>
+    <mergeCell ref="B427:B428"/>
+    <mergeCell ref="C427:C428"/>
+    <mergeCell ref="D427:D428"/>
+    <mergeCell ref="J427:J428"/>
   </mergeCells>
   <pageMargins left="0.196850393700787" right="0" top="0.196850393700787" bottom="0.196850393700787" header="0.196850393700787" footer="0.196850393700787"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="120" verticalDpi="72" r:id="rId1"/>
@@ -58004,37 +58004,37 @@
       <c r="K2" s="298"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="421" t="s">
+      <c r="A3" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B3" s="424" t="s">
+      <c r="B3" s="421" t="s">
         <v>704</v>
       </c>
-      <c r="C3" s="424" t="s">
+      <c r="C3" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="425" t="s">
+      <c r="D3" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E3" s="426" t="s">
+      <c r="E3" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="426"/>
-      <c r="G3" s="426"/>
-      <c r="H3" s="426"/>
-      <c r="I3" s="426"/>
-      <c r="J3" s="419" t="s">
+      <c r="F3" s="423"/>
+      <c r="G3" s="423"/>
+      <c r="H3" s="423"/>
+      <c r="I3" s="423"/>
+      <c r="J3" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="421" t="s">
+      <c r="K3" s="418" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="423"/>
-      <c r="B4" s="424"/>
-      <c r="C4" s="424"/>
-      <c r="D4" s="425"/>
+      <c r="A4" s="420"/>
+      <c r="B4" s="421"/>
+      <c r="C4" s="421"/>
+      <c r="D4" s="422"/>
       <c r="E4" s="272" t="s">
         <v>21</v>
       </c>
@@ -58050,11 +58050,11 @@
       <c r="I4" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J4" s="420"/>
-      <c r="K4" s="422"/>
+      <c r="J4" s="417"/>
+      <c r="K4" s="419"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="422"/>
+      <c r="A5" s="419"/>
       <c r="B5" s="273">
         <v>1</v>
       </c>
@@ -59031,37 +59031,37 @@
       <c r="K29" s="140"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="421" t="s">
+      <c r="A30" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B30" s="424" t="s">
+      <c r="B30" s="421" t="s">
         <v>704</v>
       </c>
-      <c r="C30" s="424" t="s">
+      <c r="C30" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="425" t="s">
+      <c r="D30" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E30" s="426" t="s">
+      <c r="E30" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="426"/>
-      <c r="G30" s="426"/>
-      <c r="H30" s="426"/>
-      <c r="I30" s="426"/>
-      <c r="J30" s="419" t="s">
+      <c r="F30" s="423"/>
+      <c r="G30" s="423"/>
+      <c r="H30" s="423"/>
+      <c r="I30" s="423"/>
+      <c r="J30" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K30" s="421" t="s">
+      <c r="K30" s="418" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="423"/>
-      <c r="B31" s="424"/>
-      <c r="C31" s="424"/>
-      <c r="D31" s="425"/>
+      <c r="A31" s="420"/>
+      <c r="B31" s="421"/>
+      <c r="C31" s="421"/>
+      <c r="D31" s="422"/>
       <c r="E31" s="272" t="s">
         <v>21</v>
       </c>
@@ -59077,11 +59077,11 @@
       <c r="I31" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J31" s="420"/>
-      <c r="K31" s="422"/>
+      <c r="J31" s="417"/>
+      <c r="K31" s="419"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="422"/>
+      <c r="A32" s="419"/>
       <c r="B32" s="273">
         <v>1</v>
       </c>
@@ -59598,37 +59598,37 @@
       <c r="K46" s="140"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="421" t="s">
+      <c r="A47" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B47" s="424" t="s">
+      <c r="B47" s="421" t="s">
         <v>704</v>
       </c>
-      <c r="C47" s="424" t="s">
+      <c r="C47" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D47" s="425" t="s">
+      <c r="D47" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E47" s="426" t="s">
+      <c r="E47" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F47" s="426"/>
-      <c r="G47" s="426"/>
-      <c r="H47" s="426"/>
-      <c r="I47" s="426"/>
-      <c r="J47" s="419" t="s">
+      <c r="F47" s="423"/>
+      <c r="G47" s="423"/>
+      <c r="H47" s="423"/>
+      <c r="I47" s="423"/>
+      <c r="J47" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K47" s="421" t="s">
+      <c r="K47" s="418" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="423"/>
-      <c r="B48" s="424"/>
-      <c r="C48" s="424"/>
-      <c r="D48" s="425"/>
+      <c r="A48" s="420"/>
+      <c r="B48" s="421"/>
+      <c r="C48" s="421"/>
+      <c r="D48" s="422"/>
       <c r="E48" s="272" t="s">
         <v>21</v>
       </c>
@@ -59644,11 +59644,11 @@
       <c r="I48" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J48" s="420"/>
-      <c r="K48" s="422"/>
+      <c r="J48" s="417"/>
+      <c r="K48" s="419"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="422"/>
+      <c r="A49" s="419"/>
       <c r="B49" s="273">
         <v>1</v>
       </c>
@@ -59899,37 +59899,37 @@
       <c r="K56" s="140"/>
     </row>
     <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="421" t="s">
+      <c r="A57" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B57" s="424" t="s">
+      <c r="B57" s="421" t="s">
         <v>704</v>
       </c>
-      <c r="C57" s="424" t="s">
+      <c r="C57" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D57" s="425" t="s">
+      <c r="D57" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E57" s="426" t="s">
+      <c r="E57" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F57" s="426"/>
-      <c r="G57" s="426"/>
-      <c r="H57" s="426"/>
-      <c r="I57" s="426"/>
-      <c r="J57" s="419" t="s">
+      <c r="F57" s="423"/>
+      <c r="G57" s="423"/>
+      <c r="H57" s="423"/>
+      <c r="I57" s="423"/>
+      <c r="J57" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K57" s="421" t="s">
+      <c r="K57" s="418" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="423"/>
-      <c r="B58" s="424"/>
-      <c r="C58" s="424"/>
-      <c r="D58" s="425"/>
+      <c r="A58" s="420"/>
+      <c r="B58" s="421"/>
+      <c r="C58" s="421"/>
+      <c r="D58" s="422"/>
       <c r="E58" s="272" t="s">
         <v>21</v>
       </c>
@@ -59945,11 +59945,11 @@
       <c r="I58" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J58" s="420"/>
-      <c r="K58" s="422"/>
+      <c r="J58" s="417"/>
+      <c r="K58" s="419"/>
     </row>
     <row r="59" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="422"/>
+      <c r="A59" s="419"/>
       <c r="B59" s="273">
         <v>1</v>
       </c>
@@ -60245,37 +60245,37 @@
       <c r="K67" s="140"/>
     </row>
     <row r="68" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="421" t="s">
+      <c r="A68" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B68" s="424" t="s">
+      <c r="B68" s="421" t="s">
         <v>704</v>
       </c>
-      <c r="C68" s="424" t="s">
+      <c r="C68" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D68" s="425" t="s">
+      <c r="D68" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E68" s="426" t="s">
+      <c r="E68" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F68" s="426"/>
-      <c r="G68" s="426"/>
-      <c r="H68" s="426"/>
-      <c r="I68" s="426"/>
-      <c r="J68" s="419" t="s">
+      <c r="F68" s="423"/>
+      <c r="G68" s="423"/>
+      <c r="H68" s="423"/>
+      <c r="I68" s="423"/>
+      <c r="J68" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K68" s="421" t="s">
+      <c r="K68" s="418" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="423"/>
-      <c r="B69" s="424"/>
-      <c r="C69" s="424"/>
-      <c r="D69" s="425"/>
+      <c r="A69" s="420"/>
+      <c r="B69" s="421"/>
+      <c r="C69" s="421"/>
+      <c r="D69" s="422"/>
       <c r="E69" s="272" t="s">
         <v>21</v>
       </c>
@@ -60291,11 +60291,11 @@
       <c r="I69" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J69" s="420"/>
-      <c r="K69" s="422"/>
+      <c r="J69" s="417"/>
+      <c r="K69" s="419"/>
     </row>
     <row r="70" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="422"/>
+      <c r="A70" s="419"/>
       <c r="B70" s="273">
         <v>1</v>
       </c>
@@ -60430,37 +60430,37 @@
       <c r="K74" s="140"/>
     </row>
     <row r="75" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="421" t="s">
+      <c r="A75" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B75" s="424" t="s">
+      <c r="B75" s="421" t="s">
         <v>704</v>
       </c>
-      <c r="C75" s="424" t="s">
+      <c r="C75" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D75" s="425" t="s">
+      <c r="D75" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E75" s="426" t="s">
+      <c r="E75" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F75" s="426"/>
-      <c r="G75" s="426"/>
-      <c r="H75" s="426"/>
-      <c r="I75" s="426"/>
-      <c r="J75" s="419" t="s">
+      <c r="F75" s="423"/>
+      <c r="G75" s="423"/>
+      <c r="H75" s="423"/>
+      <c r="I75" s="423"/>
+      <c r="J75" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K75" s="421" t="s">
+      <c r="K75" s="418" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="423"/>
-      <c r="B76" s="424"/>
-      <c r="C76" s="424"/>
-      <c r="D76" s="425"/>
+      <c r="A76" s="420"/>
+      <c r="B76" s="421"/>
+      <c r="C76" s="421"/>
+      <c r="D76" s="422"/>
       <c r="E76" s="272" t="s">
         <v>21</v>
       </c>
@@ -60476,11 +60476,11 @@
       <c r="I76" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J76" s="420"/>
-      <c r="K76" s="422"/>
+      <c r="J76" s="417"/>
+      <c r="K76" s="419"/>
     </row>
     <row r="77" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="422"/>
+      <c r="A77" s="419"/>
       <c r="B77" s="273">
         <v>1</v>
       </c>
@@ -60684,37 +60684,37 @@
       <c r="K83" s="140"/>
     </row>
     <row r="84" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="421" t="s">
+      <c r="A84" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B84" s="424" t="s">
+      <c r="B84" s="421" t="s">
         <v>704</v>
       </c>
-      <c r="C84" s="424" t="s">
+      <c r="C84" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D84" s="425" t="s">
+      <c r="D84" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E84" s="426" t="s">
+      <c r="E84" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F84" s="426"/>
-      <c r="G84" s="426"/>
-      <c r="H84" s="426"/>
-      <c r="I84" s="426"/>
-      <c r="J84" s="419" t="s">
+      <c r="F84" s="423"/>
+      <c r="G84" s="423"/>
+      <c r="H84" s="423"/>
+      <c r="I84" s="423"/>
+      <c r="J84" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K84" s="421" t="s">
+      <c r="K84" s="418" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="423"/>
-      <c r="B85" s="424"/>
-      <c r="C85" s="424"/>
-      <c r="D85" s="425"/>
+      <c r="A85" s="420"/>
+      <c r="B85" s="421"/>
+      <c r="C85" s="421"/>
+      <c r="D85" s="422"/>
       <c r="E85" s="272" t="s">
         <v>21</v>
       </c>
@@ -60730,11 +60730,11 @@
       <c r="I85" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J85" s="420"/>
-      <c r="K85" s="422"/>
+      <c r="J85" s="417"/>
+      <c r="K85" s="419"/>
     </row>
     <row r="86" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="422"/>
+      <c r="A86" s="419"/>
       <c r="B86" s="273">
         <v>1</v>
       </c>
@@ -60979,37 +60979,37 @@
       <c r="K93" s="140"/>
     </row>
     <row r="94" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="421" t="s">
+      <c r="A94" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B94" s="424" t="s">
+      <c r="B94" s="421" t="s">
         <v>704</v>
       </c>
-      <c r="C94" s="424" t="s">
+      <c r="C94" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D94" s="425" t="s">
+      <c r="D94" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E94" s="426" t="s">
+      <c r="E94" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F94" s="426"/>
-      <c r="G94" s="426"/>
-      <c r="H94" s="426"/>
-      <c r="I94" s="426"/>
-      <c r="J94" s="419" t="s">
+      <c r="F94" s="423"/>
+      <c r="G94" s="423"/>
+      <c r="H94" s="423"/>
+      <c r="I94" s="423"/>
+      <c r="J94" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K94" s="421" t="s">
+      <c r="K94" s="418" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="423"/>
-      <c r="B95" s="424"/>
-      <c r="C95" s="424"/>
-      <c r="D95" s="425"/>
+      <c r="A95" s="420"/>
+      <c r="B95" s="421"/>
+      <c r="C95" s="421"/>
+      <c r="D95" s="422"/>
       <c r="E95" s="272" t="s">
         <v>21</v>
       </c>
@@ -61025,11 +61025,11 @@
       <c r="I95" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J95" s="420"/>
-      <c r="K95" s="422"/>
+      <c r="J95" s="417"/>
+      <c r="K95" s="419"/>
     </row>
     <row r="96" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="422"/>
+      <c r="A96" s="419"/>
       <c r="B96" s="273">
         <v>1</v>
       </c>
@@ -61188,37 +61188,37 @@
       <c r="K101" s="140"/>
     </row>
     <row r="102" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="421" t="s">
+      <c r="A102" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B102" s="424" t="s">
+      <c r="B102" s="421" t="s">
         <v>704</v>
       </c>
-      <c r="C102" s="424" t="s">
+      <c r="C102" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D102" s="425" t="s">
+      <c r="D102" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E102" s="426" t="s">
+      <c r="E102" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F102" s="426"/>
-      <c r="G102" s="426"/>
-      <c r="H102" s="426"/>
-      <c r="I102" s="426"/>
-      <c r="J102" s="419" t="s">
+      <c r="F102" s="423"/>
+      <c r="G102" s="423"/>
+      <c r="H102" s="423"/>
+      <c r="I102" s="423"/>
+      <c r="J102" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K102" s="421" t="s">
+      <c r="K102" s="418" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="423"/>
-      <c r="B103" s="424"/>
-      <c r="C103" s="424"/>
-      <c r="D103" s="425"/>
+      <c r="A103" s="420"/>
+      <c r="B103" s="421"/>
+      <c r="C103" s="421"/>
+      <c r="D103" s="422"/>
       <c r="E103" s="272" t="s">
         <v>21</v>
       </c>
@@ -61234,11 +61234,11 @@
       <c r="I103" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J103" s="420"/>
-      <c r="K103" s="422"/>
+      <c r="J103" s="417"/>
+      <c r="K103" s="419"/>
     </row>
     <row r="104" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="422"/>
+      <c r="A104" s="419"/>
       <c r="B104" s="273">
         <v>1</v>
       </c>
@@ -61517,37 +61517,37 @@
       <c r="K112" s="140"/>
     </row>
     <row r="113" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="421" t="s">
+      <c r="A113" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B113" s="424" t="s">
+      <c r="B113" s="421" t="s">
         <v>704</v>
       </c>
-      <c r="C113" s="424" t="s">
+      <c r="C113" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D113" s="425" t="s">
+      <c r="D113" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E113" s="426" t="s">
+      <c r="E113" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F113" s="426"/>
-      <c r="G113" s="426"/>
-      <c r="H113" s="426"/>
-      <c r="I113" s="426"/>
-      <c r="J113" s="419" t="s">
+      <c r="F113" s="423"/>
+      <c r="G113" s="423"/>
+      <c r="H113" s="423"/>
+      <c r="I113" s="423"/>
+      <c r="J113" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K113" s="421" t="s">
+      <c r="K113" s="418" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="423"/>
-      <c r="B114" s="424"/>
-      <c r="C114" s="424"/>
-      <c r="D114" s="425"/>
+      <c r="A114" s="420"/>
+      <c r="B114" s="421"/>
+      <c r="C114" s="421"/>
+      <c r="D114" s="422"/>
       <c r="E114" s="272" t="s">
         <v>21</v>
       </c>
@@ -61563,11 +61563,11 @@
       <c r="I114" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J114" s="420"/>
-      <c r="K114" s="422"/>
+      <c r="J114" s="417"/>
+      <c r="K114" s="419"/>
     </row>
     <row r="115" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="422"/>
+      <c r="A115" s="419"/>
       <c r="B115" s="273">
         <v>1</v>
       </c>
@@ -61736,37 +61736,37 @@
       <c r="K120" s="298"/>
     </row>
     <row r="121" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="421" t="s">
+      <c r="A121" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B121" s="424" t="s">
+      <c r="B121" s="421" t="s">
         <v>704</v>
       </c>
-      <c r="C121" s="424" t="s">
+      <c r="C121" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D121" s="425" t="s">
+      <c r="D121" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E121" s="426" t="s">
+      <c r="E121" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F121" s="426"/>
-      <c r="G121" s="426"/>
-      <c r="H121" s="426"/>
-      <c r="I121" s="426"/>
-      <c r="J121" s="419" t="s">
+      <c r="F121" s="423"/>
+      <c r="G121" s="423"/>
+      <c r="H121" s="423"/>
+      <c r="I121" s="423"/>
+      <c r="J121" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K121" s="421" t="s">
+      <c r="K121" s="418" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="423"/>
-      <c r="B122" s="424"/>
-      <c r="C122" s="424"/>
-      <c r="D122" s="425"/>
+      <c r="A122" s="420"/>
+      <c r="B122" s="421"/>
+      <c r="C122" s="421"/>
+      <c r="D122" s="422"/>
       <c r="E122" s="272" t="s">
         <v>21</v>
       </c>
@@ -61782,11 +61782,11 @@
       <c r="I122" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J122" s="420"/>
-      <c r="K122" s="422"/>
+      <c r="J122" s="417"/>
+      <c r="K122" s="419"/>
     </row>
     <row r="123" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="422"/>
+      <c r="A123" s="419"/>
       <c r="B123" s="273">
         <v>1</v>
       </c>
@@ -62411,37 +62411,37 @@
       <c r="K140" s="298"/>
     </row>
     <row r="141" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="421" t="s">
+      <c r="A141" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B141" s="424" t="s">
+      <c r="B141" s="421" t="s">
         <v>704</v>
       </c>
-      <c r="C141" s="424" t="s">
+      <c r="C141" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D141" s="425" t="s">
+      <c r="D141" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E141" s="426" t="s">
+      <c r="E141" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F141" s="426"/>
-      <c r="G141" s="426"/>
-      <c r="H141" s="426"/>
-      <c r="I141" s="426"/>
-      <c r="J141" s="419" t="s">
+      <c r="F141" s="423"/>
+      <c r="G141" s="423"/>
+      <c r="H141" s="423"/>
+      <c r="I141" s="423"/>
+      <c r="J141" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K141" s="421" t="s">
+      <c r="K141" s="418" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="142" spans="1:15" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="423"/>
-      <c r="B142" s="424"/>
-      <c r="C142" s="424"/>
-      <c r="D142" s="425"/>
+      <c r="A142" s="420"/>
+      <c r="B142" s="421"/>
+      <c r="C142" s="421"/>
+      <c r="D142" s="422"/>
       <c r="E142" s="272" t="s">
         <v>21</v>
       </c>
@@ -62457,11 +62457,11 @@
       <c r="I142" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J142" s="420"/>
-      <c r="K142" s="422"/>
+      <c r="J142" s="417"/>
+      <c r="K142" s="419"/>
     </row>
     <row r="143" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="422"/>
+      <c r="A143" s="419"/>
       <c r="B143" s="273">
         <v>1</v>
       </c>
@@ -63203,13 +63203,69 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="J121:J122"/>
-    <mergeCell ref="K121:K122"/>
-    <mergeCell ref="A121:A123"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E121:I121"/>
+    <mergeCell ref="J141:J142"/>
+    <mergeCell ref="K141:K142"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="E141:I141"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="E57:I57"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="E75:I75"/>
+    <mergeCell ref="E68:I68"/>
+    <mergeCell ref="K84:K85"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="J94:J95"/>
+    <mergeCell ref="K94:K95"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="E84:I84"/>
+    <mergeCell ref="E94:I94"/>
     <mergeCell ref="K102:K103"/>
     <mergeCell ref="A113:A115"/>
     <mergeCell ref="B113:B114"/>
@@ -63224,69 +63280,13 @@
     <mergeCell ref="J102:J103"/>
     <mergeCell ref="E102:I102"/>
     <mergeCell ref="E113:I113"/>
-    <mergeCell ref="K84:K85"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="J94:J95"/>
-    <mergeCell ref="K94:K95"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="J84:J85"/>
-    <mergeCell ref="E84:I84"/>
-    <mergeCell ref="E94:I94"/>
-    <mergeCell ref="K68:K69"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="E75:I75"/>
-    <mergeCell ref="E68:I68"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="E57:I57"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J141:J142"/>
-    <mergeCell ref="K141:K142"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="E141:I141"/>
+    <mergeCell ref="J121:J122"/>
+    <mergeCell ref="K121:K122"/>
+    <mergeCell ref="A121:A123"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:I121"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0" header="0.19685039370078741" footer="0"/>
   <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
@@ -63349,37 +63349,37 @@
       <c r="K2" s="298"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="421" t="s">
+      <c r="A3" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B3" s="424" t="s">
+      <c r="B3" s="421" t="s">
         <v>704</v>
       </c>
-      <c r="C3" s="424" t="s">
+      <c r="C3" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="425" t="s">
+      <c r="D3" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E3" s="426" t="s">
+      <c r="E3" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="426"/>
-      <c r="G3" s="426"/>
-      <c r="H3" s="426"/>
-      <c r="I3" s="426"/>
-      <c r="J3" s="419" t="s">
+      <c r="F3" s="423"/>
+      <c r="G3" s="423"/>
+      <c r="H3" s="423"/>
+      <c r="I3" s="423"/>
+      <c r="J3" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="421" t="s">
+      <c r="K3" s="418" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="423"/>
-      <c r="B4" s="424"/>
-      <c r="C4" s="424"/>
-      <c r="D4" s="425"/>
+      <c r="A4" s="420"/>
+      <c r="B4" s="421"/>
+      <c r="C4" s="421"/>
+      <c r="D4" s="422"/>
       <c r="E4" s="272" t="s">
         <v>21</v>
       </c>
@@ -63395,11 +63395,11 @@
       <c r="I4" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J4" s="420"/>
-      <c r="K4" s="422"/>
+      <c r="J4" s="417"/>
+      <c r="K4" s="419"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="422"/>
+      <c r="A5" s="419"/>
       <c r="B5" s="273">
         <v>1</v>
       </c>
@@ -64717,37 +64717,37 @@
       <c r="K2" s="298"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="421" t="s">
+      <c r="A3" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B3" s="424" t="s">
+      <c r="B3" s="421" t="s">
         <v>704</v>
       </c>
-      <c r="C3" s="424" t="s">
+      <c r="C3" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="425" t="s">
+      <c r="D3" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E3" s="426" t="s">
+      <c r="E3" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="426"/>
-      <c r="G3" s="426"/>
-      <c r="H3" s="426"/>
-      <c r="I3" s="426"/>
-      <c r="J3" s="419" t="s">
+      <c r="F3" s="423"/>
+      <c r="G3" s="423"/>
+      <c r="H3" s="423"/>
+      <c r="I3" s="423"/>
+      <c r="J3" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="421" t="s">
+      <c r="K3" s="418" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="423"/>
-      <c r="B4" s="424"/>
-      <c r="C4" s="424"/>
-      <c r="D4" s="425"/>
+      <c r="A4" s="420"/>
+      <c r="B4" s="421"/>
+      <c r="C4" s="421"/>
+      <c r="D4" s="422"/>
       <c r="E4" s="272" t="s">
         <v>21</v>
       </c>
@@ -64763,11 +64763,11 @@
       <c r="I4" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J4" s="420"/>
-      <c r="K4" s="422"/>
+      <c r="J4" s="417"/>
+      <c r="K4" s="419"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="422"/>
+      <c r="A5" s="419"/>
       <c r="B5" s="273">
         <v>1</v>
       </c>
@@ -65052,37 +65052,37 @@
       <c r="K12" s="140"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="421" t="s">
+      <c r="A13" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B13" s="424" t="s">
+      <c r="B13" s="421" t="s">
         <v>704</v>
       </c>
-      <c r="C13" s="424" t="s">
+      <c r="C13" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="425" t="s">
+      <c r="D13" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E13" s="426" t="s">
+      <c r="E13" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="426"/>
-      <c r="G13" s="426"/>
-      <c r="H13" s="426"/>
-      <c r="I13" s="426"/>
-      <c r="J13" s="419" t="s">
+      <c r="F13" s="423"/>
+      <c r="G13" s="423"/>
+      <c r="H13" s="423"/>
+      <c r="I13" s="423"/>
+      <c r="J13" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="421" t="s">
+      <c r="K13" s="418" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="423"/>
-      <c r="B14" s="424"/>
-      <c r="C14" s="424"/>
-      <c r="D14" s="425"/>
+      <c r="A14" s="420"/>
+      <c r="B14" s="421"/>
+      <c r="C14" s="421"/>
+      <c r="D14" s="422"/>
       <c r="E14" s="272" t="s">
         <v>21</v>
       </c>
@@ -65098,11 +65098,11 @@
       <c r="I14" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J14" s="420"/>
-      <c r="K14" s="422"/>
+      <c r="J14" s="417"/>
+      <c r="K14" s="419"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="422"/>
+      <c r="A15" s="419"/>
       <c r="B15" s="273">
         <v>1</v>
       </c>
@@ -66037,37 +66037,37 @@
       <c r="K36" s="140"/>
     </row>
     <row r="37" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="421" t="s">
+      <c r="A37" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B37" s="424" t="s">
+      <c r="B37" s="421" t="s">
         <v>704</v>
       </c>
-      <c r="C37" s="424" t="s">
+      <c r="C37" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="425" t="s">
+      <c r="D37" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E37" s="426" t="s">
+      <c r="E37" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="426"/>
-      <c r="G37" s="426"/>
-      <c r="H37" s="426"/>
-      <c r="I37" s="426"/>
-      <c r="J37" s="419" t="s">
+      <c r="F37" s="423"/>
+      <c r="G37" s="423"/>
+      <c r="H37" s="423"/>
+      <c r="I37" s="423"/>
+      <c r="J37" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K37" s="421" t="s">
+      <c r="K37" s="418" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="423"/>
-      <c r="B38" s="424"/>
-      <c r="C38" s="424"/>
-      <c r="D38" s="425"/>
+      <c r="A38" s="420"/>
+      <c r="B38" s="421"/>
+      <c r="C38" s="421"/>
+      <c r="D38" s="422"/>
       <c r="E38" s="272" t="s">
         <v>21</v>
       </c>
@@ -66083,11 +66083,11 @@
       <c r="I38" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J38" s="420"/>
-      <c r="K38" s="422"/>
+      <c r="J38" s="417"/>
+      <c r="K38" s="419"/>
     </row>
     <row r="39" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="422"/>
+      <c r="A39" s="419"/>
       <c r="B39" s="273">
         <v>1</v>
       </c>
@@ -66392,37 +66392,37 @@
       <c r="K47" s="140"/>
     </row>
     <row r="48" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="421" t="s">
+      <c r="A48" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B48" s="424" t="s">
+      <c r="B48" s="421" t="s">
         <v>704</v>
       </c>
-      <c r="C48" s="424" t="s">
+      <c r="C48" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="425" t="s">
+      <c r="D48" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E48" s="426" t="s">
+      <c r="E48" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F48" s="426"/>
-      <c r="G48" s="426"/>
-      <c r="H48" s="426"/>
-      <c r="I48" s="426"/>
-      <c r="J48" s="419" t="s">
+      <c r="F48" s="423"/>
+      <c r="G48" s="423"/>
+      <c r="H48" s="423"/>
+      <c r="I48" s="423"/>
+      <c r="J48" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K48" s="421" t="s">
+      <c r="K48" s="418" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="49" spans="1:37" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="423"/>
-      <c r="B49" s="424"/>
-      <c r="C49" s="424"/>
-      <c r="D49" s="425"/>
+      <c r="A49" s="420"/>
+      <c r="B49" s="421"/>
+      <c r="C49" s="421"/>
+      <c r="D49" s="422"/>
       <c r="E49" s="272" t="s">
         <v>21</v>
       </c>
@@ -66438,11 +66438,11 @@
       <c r="I49" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J49" s="420"/>
-      <c r="K49" s="422"/>
+      <c r="J49" s="417"/>
+      <c r="K49" s="419"/>
     </row>
     <row r="50" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="422"/>
+      <c r="A50" s="419"/>
       <c r="B50" s="273">
         <v>1</v>
       </c>
@@ -67423,6 +67423,20 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E13:I13"/>
     <mergeCell ref="K37:K38"/>
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="B48:B49"/>
@@ -67437,20 +67451,6 @@
     <mergeCell ref="J37:J38"/>
     <mergeCell ref="E37:I37"/>
     <mergeCell ref="E48:I48"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="E13:I13"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="89" orientation="landscape" horizontalDpi="120" verticalDpi="72" r:id="rId1"/>
@@ -67504,37 +67504,37 @@
       <c r="K2" s="298"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="421" t="s">
+      <c r="A3" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B3" s="424" t="s">
+      <c r="B3" s="421" t="s">
         <v>704</v>
       </c>
-      <c r="C3" s="424" t="s">
+      <c r="C3" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="425" t="s">
+      <c r="D3" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E3" s="426" t="s">
+      <c r="E3" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="426"/>
-      <c r="G3" s="426"/>
-      <c r="H3" s="426"/>
-      <c r="I3" s="426"/>
-      <c r="J3" s="419" t="s">
+      <c r="F3" s="423"/>
+      <c r="G3" s="423"/>
+      <c r="H3" s="423"/>
+      <c r="I3" s="423"/>
+      <c r="J3" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="421" t="s">
+      <c r="K3" s="418" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="423"/>
-      <c r="B4" s="424"/>
-      <c r="C4" s="424"/>
-      <c r="D4" s="425"/>
+      <c r="A4" s="420"/>
+      <c r="B4" s="421"/>
+      <c r="C4" s="421"/>
+      <c r="D4" s="422"/>
       <c r="E4" s="272" t="s">
         <v>21</v>
       </c>
@@ -67550,11 +67550,11 @@
       <c r="I4" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J4" s="420"/>
-      <c r="K4" s="422"/>
+      <c r="J4" s="417"/>
+      <c r="K4" s="419"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="422"/>
+      <c r="A5" s="419"/>
       <c r="B5" s="273">
         <v>1</v>
       </c>
@@ -68209,37 +68209,37 @@
       <c r="K24" s="140"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="421" t="s">
+      <c r="A25" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B25" s="424" t="s">
+      <c r="B25" s="421" t="s">
         <v>704</v>
       </c>
-      <c r="C25" s="424" t="s">
+      <c r="C25" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="425" t="s">
+      <c r="D25" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E25" s="426" t="s">
+      <c r="E25" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="426"/>
-      <c r="G25" s="426"/>
-      <c r="H25" s="426"/>
-      <c r="I25" s="426"/>
-      <c r="J25" s="419" t="s">
+      <c r="F25" s="423"/>
+      <c r="G25" s="423"/>
+      <c r="H25" s="423"/>
+      <c r="I25" s="423"/>
+      <c r="J25" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K25" s="421" t="s">
+      <c r="K25" s="418" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="423"/>
-      <c r="B26" s="424"/>
-      <c r="C26" s="424"/>
-      <c r="D26" s="425"/>
+      <c r="A26" s="420"/>
+      <c r="B26" s="421"/>
+      <c r="C26" s="421"/>
+      <c r="D26" s="422"/>
       <c r="E26" s="272" t="s">
         <v>21</v>
       </c>
@@ -68255,11 +68255,11 @@
       <c r="I26" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J26" s="420"/>
-      <c r="K26" s="422"/>
+      <c r="J26" s="417"/>
+      <c r="K26" s="419"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="422"/>
+      <c r="A27" s="419"/>
       <c r="B27" s="273">
         <v>1</v>
       </c>
@@ -68966,37 +68966,37 @@
       <c r="K46" s="298"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="421" t="s">
+      <c r="A47" s="418" t="s">
         <v>653</v>
       </c>
-      <c r="B47" s="424" t="s">
+      <c r="B47" s="421" t="s">
         <v>704</v>
       </c>
-      <c r="C47" s="424" t="s">
+      <c r="C47" s="421" t="s">
         <v>1</v>
       </c>
-      <c r="D47" s="425" t="s">
+      <c r="D47" s="422" t="s">
         <v>645</v>
       </c>
-      <c r="E47" s="426" t="s">
+      <c r="E47" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="F47" s="426"/>
-      <c r="G47" s="426"/>
-      <c r="H47" s="426"/>
-      <c r="I47" s="426"/>
-      <c r="J47" s="419" t="s">
+      <c r="F47" s="423"/>
+      <c r="G47" s="423"/>
+      <c r="H47" s="423"/>
+      <c r="I47" s="423"/>
+      <c r="J47" s="416" t="s">
         <v>20</v>
       </c>
-      <c r="K47" s="421" t="s">
+      <c r="K47" s="418" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="423"/>
-      <c r="B48" s="424"/>
-      <c r="C48" s="424"/>
-      <c r="D48" s="425"/>
+      <c r="A48" s="420"/>
+      <c r="B48" s="421"/>
+      <c r="C48" s="421"/>
+      <c r="D48" s="422"/>
       <c r="E48" s="272" t="s">
         <v>21</v>
       </c>
@@ -69012,11 +69012,11 @@
       <c r="I48" s="272" t="s">
         <v>597</v>
       </c>
-      <c r="J48" s="420"/>
-      <c r="K48" s="422"/>
+      <c r="J48" s="417"/>
+      <c r="K48" s="419"/>
     </row>
     <row r="49" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="422"/>
+      <c r="A49" s="419"/>
       <c r="B49" s="273">
         <v>1</v>
       </c>
@@ -69812,6 +69812,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:I47"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="B25:B26"/>
@@ -69826,13 +69833,6 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:I47"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="84" orientation="landscape" horizontalDpi="120" verticalDpi="72" r:id="rId1"/>
@@ -69844,7 +69844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Y73"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -70130,7 +70130,7 @@
       </c>
       <c r="H10" s="1">
         <f>'C.SHP&amp;SHPSS'!K516</f>
-        <v>441021790.76999998</v>
+        <v>458281343.52999997</v>
       </c>
       <c r="J10" s="19">
         <v>203289</v>
@@ -70151,7 +70151,7 @@
       </c>
       <c r="O10" s="149">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-17259552.75999999</v>
       </c>
       <c r="Q10" s="19"/>
       <c r="R10" s="19">
@@ -70561,7 +70561,7 @@
       </c>
       <c r="H16" s="23">
         <f>SUM(H8:H14)</f>
-        <v>4011961610.3450003</v>
+        <v>4029221163.105</v>
       </c>
       <c r="J16" s="179">
         <f>SUM(J8:J15)</f>
@@ -70585,7 +70585,7 @@
       </c>
       <c r="O16" s="149">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-17259552.759999752</v>
       </c>
       <c r="Q16" s="19"/>
       <c r="R16" s="19">
